--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_14_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_14_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1767521.330494293</v>
+        <v>1735239.926963411</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6486630.972584564</v>
+        <v>6486630.972584563</v>
       </c>
     </row>
     <row r="9">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>128.5948748807506</v>
+        <v>175.3605127983445</v>
       </c>
       <c r="I11" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H12" t="n">
-        <v>93.13436112172583</v>
+        <v>21.69126064627671</v>
       </c>
       <c r="I12" t="n">
         <v>21.30239922246436</v>
@@ -1505,7 +1505,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U12" t="n">
-        <v>154.3681652355332</v>
+        <v>225.8112657109832</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.59885160580631</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>147.485201092913</v>
       </c>
       <c r="I13" t="n">
-        <v>105.5870378728063</v>
+        <v>63.32028556697113</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>220.8610019386828</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>199.4073952367655</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.6062992654567</v>
+        <v>364.3661015476566</v>
       </c>
       <c r="H14" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T14" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H15" t="n">
-        <v>42.99365986874107</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T15" t="n">
-        <v>192.192932426668</v>
+        <v>120.7498319512194</v>
       </c>
       <c r="U15" t="n">
         <v>225.8112657109832</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>79.50445043418938</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T16" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2285878140705</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>200.1983439946922</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>33.73763518183101</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>40.13428436841756</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>63.9226478638888</v>
+        <v>135.3657483393379</v>
       </c>
       <c r="H18" t="n">
         <v>93.13436112172583</v>
       </c>
       <c r="I18" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T18" t="n">
-        <v>192.192932426668</v>
+        <v>142.0522311736837</v>
       </c>
       <c r="U18" t="n">
         <v>225.8112657109832</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>80.24511111841734</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>68.85663695577573</v>
       </c>
       <c r="H19" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>195.1205252336517</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>31.37447039637111</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.6062992654567</v>
+        <v>296.397147597975</v>
       </c>
       <c r="H20" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T20" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>85.22504708635316</v>
+        <v>63.92264786388922</v>
       </c>
       <c r="H21" t="n">
         <v>93.13436112172583</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>33.86545958060761</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S22" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>15.53003894133983</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>411.6062992654567</v>
+        <v>280.2061986996749</v>
       </c>
       <c r="H23" t="n">
-        <v>149.8719142019497</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>103.9756369948826</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>92.51664689931567</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>223.2281808860504</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>279.4681630646123</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H26" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T28" t="n">
-        <v>220.8610019386828</v>
+        <v>46.22307570327339</v>
       </c>
       <c r="U28" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>200.1983439946919</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>266.3372994707382</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>50.42298050840792</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>77.2281018476007</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T31" t="n">
-        <v>220.8610019386828</v>
+        <v>185.9010580663223</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3034,22 +3034,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>195.3237932237982</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>238.0335235810631</v>
       </c>
     </row>
     <row r="33">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3328844140846</v>
+        <v>111.0353489594</v>
       </c>
       <c r="H34" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S34" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>208.1237587426183</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3274,13 +3274,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>16.19884056228242</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>113.5603911967341</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>135.3657483393379</v>
+        <v>63.9226478638888</v>
       </c>
       <c r="H36" t="n">
         <v>93.13436112172583</v>
@@ -3410,7 +3410,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>134.3298847280311</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>0.8349748523802202</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H37" t="n">
         <v>147.485201092913</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T37" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>120.6514878862753</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>176.0736968693773</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>131.6116453625448</v>
       </c>
     </row>
     <row r="39">
@@ -3593,7 +3593,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>73.62611191793475</v>
       </c>
       <c r="G39" t="n">
         <v>135.3657483393379</v>
@@ -3602,7 +3602,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>84.80628138988411</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T39" t="n">
         <v>192.192932426668</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>133.9846926361019</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2285878140705</v>
+        <v>277.3606917559756</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>59.1481033764343</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>110.9063984030739</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3836,10 +3836,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H42" t="n">
-        <v>42.99365986874107</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T42" t="n">
-        <v>192.192932426668</v>
+        <v>120.7498319512199</v>
       </c>
       <c r="U42" t="n">
         <v>225.8112657109832</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>115.183533837371</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U43" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V43" t="n">
-        <v>76.94440446915753</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>116.229255256359</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>136.2502466745961</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>67.96895394968166</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>116.3924823968825</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4076,7 +4076,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I45" t="n">
-        <v>21.30239922246437</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>63.50388216741892</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T45" t="n">
         <v>192.192932426668</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>129.2039276449097</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V46" t="n">
-        <v>33.24985506453383</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1361.38361912505</v>
+        <v>971.0036112431355</v>
       </c>
       <c r="C11" t="n">
-        <v>992.4211021846384</v>
+        <v>971.0036112431355</v>
       </c>
       <c r="D11" t="n">
-        <v>634.1554035778879</v>
+        <v>612.7379126363851</v>
       </c>
       <c r="E11" t="n">
-        <v>248.3671509796437</v>
+        <v>226.9496600381408</v>
       </c>
       <c r="F11" t="n">
-        <v>248.3671509796437</v>
+        <v>226.9496600381408</v>
       </c>
       <c r="G11" t="n">
-        <v>248.3671509796437</v>
+        <v>226.9496600381408</v>
       </c>
       <c r="H11" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I11" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J11" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K11" t="n">
-        <v>428.7854999799486</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L11" t="n">
         <v>772.8691714549145</v>
@@ -5059,34 +5059,34 @@
         <v>2002.031077317523</v>
       </c>
       <c r="P11" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q11" t="n">
-        <v>2474.446703561745</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R11" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S11" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T11" t="n">
-        <v>2490.891446435098</v>
+        <v>2281.886707923822</v>
       </c>
       <c r="U11" t="n">
-        <v>2490.891446435098</v>
+        <v>2028.3009121179</v>
       </c>
       <c r="V11" t="n">
-        <v>2490.891446435098</v>
+        <v>1697.238024774329</v>
       </c>
       <c r="W11" t="n">
-        <v>2138.122791164983</v>
+        <v>1344.469369504215</v>
       </c>
       <c r="X11" t="n">
-        <v>2138.122791164983</v>
+        <v>971.0036112431355</v>
       </c>
       <c r="Y11" t="n">
-        <v>1747.983459189172</v>
+        <v>971.0036112431355</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416497</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605228</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992715</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6781532488151</v>
+        <v>376.513405293816</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1435952757</v>
+        <v>229.978847320701</v>
       </c>
       <c r="G12" t="n">
-        <v>165.4105161450557</v>
+        <v>93.24576819005659</v>
       </c>
       <c r="H12" t="n">
-        <v>71.33540390088818</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J12" t="n">
-        <v>109.2358024440159</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K12" t="n">
-        <v>550.7659925046441</v>
+        <v>583.0451988570704</v>
       </c>
       <c r="L12" t="n">
-        <v>838.7302756873066</v>
+        <v>871.009482039733</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.127879935978</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N12" t="n">
-        <v>1573.340446166283</v>
+        <v>1605.619652518709</v>
       </c>
       <c r="O12" t="n">
-        <v>1898.02606388004</v>
+        <v>1930.305270232466</v>
       </c>
       <c r="P12" t="n">
-        <v>2357.126603646086</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q12" t="n">
-        <v>2468.480498228519</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R12" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S12" t="n">
-        <v>2354.581362957452</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T12" t="n">
         <v>2160.447087779</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>796.1400366611371</v>
+        <v>579.6019404489859</v>
       </c>
       <c r="C13" t="n">
-        <v>796.1400366611371</v>
+        <v>410.6657575210791</v>
       </c>
       <c r="D13" t="n">
-        <v>768.2624087764842</v>
+        <v>410.6657575210791</v>
       </c>
       <c r="E13" t="n">
-        <v>620.3493151940911</v>
+        <v>262.7526639386859</v>
       </c>
       <c r="F13" t="n">
-        <v>473.4593676961807</v>
+        <v>262.7526639386859</v>
       </c>
       <c r="G13" t="n">
-        <v>305.4463531364993</v>
+        <v>262.7526639386859</v>
       </c>
       <c r="H13" t="n">
-        <v>156.4714025375973</v>
+        <v>113.7777133397839</v>
       </c>
       <c r="I13" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J13" t="n">
-        <v>73.44728005477627</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K13" t="n">
-        <v>242.1145636490677</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L13" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M13" t="n">
-        <v>809.9798694642498</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N13" t="n">
         <v>1104.867129907538</v>
@@ -5217,34 +5217,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P13" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q13" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R13" t="n">
-        <v>1505.443183112051</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S13" t="n">
-        <v>1308.3517434821</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T13" t="n">
-        <v>1085.259822331915</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="U13" t="n">
-        <v>796.1400366611371</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="V13" t="n">
-        <v>796.1400366611371</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="W13" t="n">
-        <v>796.1400366611371</v>
+        <v>807.5914913470033</v>
       </c>
       <c r="X13" t="n">
-        <v>796.1400366611371</v>
+        <v>579.6019404489859</v>
       </c>
       <c r="Y13" t="n">
-        <v>796.1400366611371</v>
+        <v>579.6019404489859</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1451.310099721494</v>
+        <v>1214.638553536409</v>
       </c>
       <c r="C14" t="n">
-        <v>1451.310099721494</v>
+        <v>1214.638553536409</v>
       </c>
       <c r="D14" t="n">
-        <v>1451.310099721494</v>
+        <v>1214.638553536409</v>
       </c>
       <c r="E14" t="n">
-        <v>1249.888488371226</v>
+        <v>828.8503009381648</v>
       </c>
       <c r="F14" t="n">
-        <v>838.9025835816185</v>
+        <v>417.8643961485572</v>
       </c>
       <c r="G14" t="n">
-        <v>423.1386449296419</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H14" t="n">
-        <v>118.4733379687845</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I14" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J14" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819832</v>
       </c>
       <c r="K14" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799483</v>
       </c>
       <c r="L14" t="n">
-        <v>772.8691714549152</v>
+        <v>772.8691714549145</v>
       </c>
       <c r="M14" t="n">
         <v>1187.397991240658</v>
       </c>
       <c r="N14" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085906</v>
       </c>
       <c r="O14" t="n">
         <v>2002.031077317524</v>
@@ -5308,22 +5308,22 @@
         <v>2364.843483837422</v>
       </c>
       <c r="T14" t="n">
-        <v>2155.838745326145</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="U14" t="n">
-        <v>2155.838745326145</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="V14" t="n">
-        <v>1824.775857982574</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="W14" t="n">
-        <v>1824.775857982574</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="X14" t="n">
-        <v>1451.310099721494</v>
+        <v>1991.377725576343</v>
       </c>
       <c r="Y14" t="n">
-        <v>1451.310099721494</v>
+        <v>1601.238393600531</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>859.1382992416497</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C15" t="n">
-        <v>684.6852699605228</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D15" t="n">
-        <v>535.7508602992715</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E15" t="n">
-        <v>376.513405293816</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F15" t="n">
-        <v>229.978847320701</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G15" t="n">
-        <v>93.24576819005659</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H15" t="n">
-        <v>49.81782892870198</v>
+        <v>71.33540390088821</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J15" t="n">
-        <v>109.235802444016</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K15" t="n">
-        <v>550.7659925046441</v>
+        <v>560.6342506504917</v>
       </c>
       <c r="L15" t="n">
-        <v>838.7302756873066</v>
+        <v>848.5985338331543</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.127879935978</v>
+        <v>1203.996138081826</v>
       </c>
       <c r="N15" t="n">
-        <v>1573.340446166283</v>
+        <v>1583.208704312131</v>
       </c>
       <c r="O15" t="n">
-        <v>1898.02606388004</v>
+        <v>1907.894322025888</v>
       </c>
       <c r="P15" t="n">
-        <v>2149.150088787596</v>
+        <v>2149.150088787597</v>
       </c>
       <c r="Q15" t="n">
         <v>2468.48049822852</v>
@@ -5384,25 +5384,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S15" t="n">
-        <v>2354.581362957453</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T15" t="n">
-        <v>2160.447087779</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U15" t="n">
-        <v>1932.354900192149</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V15" t="n">
-        <v>1697.202791960406</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W15" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X15" t="n">
-        <v>1235.113935026672</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y15" t="n">
-        <v>1027.353636261718</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="16">
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.81782892870198</v>
+        <v>130.1253546198024</v>
       </c>
       <c r="C16" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="D16" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="E16" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="F16" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G16" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H16" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I16" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J16" t="n">
-        <v>73.4472800547763</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K16" t="n">
         <v>242.1145636490678</v>
       </c>
       <c r="L16" t="n">
-        <v>513.4770511394355</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M16" t="n">
-        <v>809.97986946425</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N16" t="n">
         <v>1104.867129907538</v>
@@ -5457,31 +5457,31 @@
         <v>1557.066378230431</v>
       </c>
       <c r="Q16" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R16" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S16" t="n">
-        <v>1308.3517434821</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T16" t="n">
-        <v>1085.259822331916</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="U16" t="n">
-        <v>796.1400366611375</v>
+        <v>1123.009142904197</v>
       </c>
       <c r="V16" t="n">
-        <v>541.4555484552507</v>
+        <v>868.3246546983104</v>
       </c>
       <c r="W16" t="n">
-        <v>252.0383784182901</v>
+        <v>578.9074846613498</v>
       </c>
       <c r="X16" t="n">
-        <v>49.81782892870198</v>
+        <v>350.9179337633325</v>
       </c>
       <c r="Y16" t="n">
-        <v>49.81782892870198</v>
+        <v>130.1253546198024</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>811.1244638514511</v>
+        <v>1128.512773148286</v>
       </c>
       <c r="C17" t="n">
-        <v>442.1619469110394</v>
+        <v>1128.512773148286</v>
       </c>
       <c r="D17" t="n">
-        <v>83.89624830428886</v>
+        <v>770.247074541536</v>
       </c>
       <c r="E17" t="n">
-        <v>49.81782892870198</v>
+        <v>770.247074541536</v>
       </c>
       <c r="F17" t="n">
-        <v>49.81782892870198</v>
+        <v>770.247074541536</v>
       </c>
       <c r="G17" t="n">
-        <v>49.81782892870198</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H17" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I17" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J17" t="n">
-        <v>181.1756535819835</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K17" t="n">
         <v>428.7854999799487</v>
@@ -5524,16 +5524,16 @@
         <v>772.869171454915</v>
       </c>
       <c r="M17" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N17" t="n">
         <v>1613.248129085907</v>
       </c>
       <c r="O17" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P17" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q17" t="n">
         <v>2474.446703561746</v>
@@ -5542,25 +5542,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S17" t="n">
-        <v>2364.843483837422</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T17" t="n">
-        <v>2155.838745326145</v>
+        <v>2281.886707923822</v>
       </c>
       <c r="U17" t="n">
-        <v>1902.252949520223</v>
+        <v>2281.886707923822</v>
       </c>
       <c r="V17" t="n">
-        <v>1571.190062176653</v>
+        <v>2241.347026743602</v>
       </c>
       <c r="W17" t="n">
-        <v>1571.190062176653</v>
+        <v>1888.578371473488</v>
       </c>
       <c r="X17" t="n">
-        <v>1197.724303915573</v>
+        <v>1515.112613212408</v>
       </c>
       <c r="Y17" t="n">
-        <v>1197.724303915573</v>
+        <v>1515.112613212408</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>859.1382992416497</v>
+        <v>909.7854722244628</v>
       </c>
       <c r="C18" t="n">
-        <v>684.6852699605228</v>
+        <v>735.3324429433358</v>
       </c>
       <c r="D18" t="n">
-        <v>535.7508602992715</v>
+        <v>586.3980332820845</v>
       </c>
       <c r="E18" t="n">
-        <v>376.513405293816</v>
+        <v>427.1605782766289</v>
       </c>
       <c r="F18" t="n">
-        <v>229.978847320701</v>
+        <v>280.6260203035139</v>
       </c>
       <c r="G18" t="n">
-        <v>165.4105161450557</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H18" t="n">
-        <v>71.3354039008882</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I18" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J18" t="n">
-        <v>109.235802444016</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K18" t="n">
-        <v>288.9454078621914</v>
+        <v>583.0451988570709</v>
       </c>
       <c r="L18" t="n">
-        <v>905.4410408548783</v>
+        <v>871.0094820397335</v>
       </c>
       <c r="M18" t="n">
-        <v>1411.972652940316</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.185219170621</v>
+        <v>1605.61965251871</v>
       </c>
       <c r="O18" t="n">
-        <v>2115.870836884378</v>
+        <v>1930.305270232467</v>
       </c>
       <c r="P18" t="n">
-        <v>2357.126603646087</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R18" t="n">
         <v>2490.891446435099</v>
       </c>
       <c r="S18" t="n">
-        <v>2354.581362957453</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T18" t="n">
-        <v>2160.447087779</v>
+        <v>2211.094260761814</v>
       </c>
       <c r="U18" t="n">
-        <v>1932.354900192149</v>
+        <v>1983.002073174962</v>
       </c>
       <c r="V18" t="n">
-        <v>1697.202791960406</v>
+        <v>1747.849964943219</v>
       </c>
       <c r="W18" t="n">
-        <v>1442.965435232205</v>
+        <v>1493.612608215017</v>
       </c>
       <c r="X18" t="n">
-        <v>1235.113935026672</v>
+        <v>1285.761108009485</v>
       </c>
       <c r="Y18" t="n">
-        <v>1027.353636261718</v>
+        <v>1078.000809244531</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>386.5020209328804</v>
+        <v>269.4866268822253</v>
       </c>
       <c r="C19" t="n">
-        <v>305.4463531364993</v>
+        <v>269.4866268822253</v>
       </c>
       <c r="D19" t="n">
-        <v>305.4463531364993</v>
+        <v>119.3699874698896</v>
       </c>
       <c r="E19" t="n">
-        <v>305.4463531364993</v>
+        <v>119.3699874698896</v>
       </c>
       <c r="F19" t="n">
-        <v>305.4463531364993</v>
+        <v>119.3699874698896</v>
       </c>
       <c r="G19" t="n">
-        <v>305.4463531364993</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H19" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I19" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J19" t="n">
-        <v>73.4472800547763</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K19" t="n">
         <v>242.1145636490678</v>
       </c>
       <c r="L19" t="n">
-        <v>513.4770511394355</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M19" t="n">
-        <v>809.97986946425</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N19" t="n">
         <v>1104.867129907538</v>
@@ -5694,31 +5694,31 @@
         <v>1557.066378230431</v>
       </c>
       <c r="Q19" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R19" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S19" t="n">
-        <v>1308.3517434821</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T19" t="n">
-        <v>1085.259822331916</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U19" t="n">
-        <v>796.1400366611375</v>
+        <v>899.9172217540125</v>
       </c>
       <c r="V19" t="n">
-        <v>796.1400366611375</v>
+        <v>899.9172217540125</v>
       </c>
       <c r="W19" t="n">
-        <v>796.1400366611375</v>
+        <v>899.9172217540125</v>
       </c>
       <c r="X19" t="n">
-        <v>568.1504857631202</v>
+        <v>671.9276708559952</v>
       </c>
       <c r="Y19" t="n">
-        <v>568.1504857631202</v>
+        <v>451.1350917124651</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1571.190062176653</v>
+        <v>1214.638553536409</v>
       </c>
       <c r="C20" t="n">
-        <v>1539.498677937894</v>
+        <v>1214.638553536409</v>
       </c>
       <c r="D20" t="n">
-        <v>1181.232979331143</v>
+        <v>1214.638553536409</v>
       </c>
       <c r="E20" t="n">
-        <v>1181.232979331143</v>
+        <v>828.8503009381648</v>
       </c>
       <c r="F20" t="n">
-        <v>770.247074541536</v>
+        <v>417.8643961485572</v>
       </c>
       <c r="G20" t="n">
-        <v>354.4831358895594</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="H20" t="n">
-        <v>49.81782892870198</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I20" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J20" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K20" t="n">
         <v>428.7854999799487</v>
@@ -5782,22 +5782,22 @@
         <v>2364.843483837422</v>
       </c>
       <c r="T20" t="n">
-        <v>2155.838745326145</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="U20" t="n">
-        <v>1902.252949520223</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="V20" t="n">
-        <v>1571.190062176653</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="W20" t="n">
-        <v>1571.190062176653</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="X20" t="n">
-        <v>1571.190062176653</v>
+        <v>1991.377725576343</v>
       </c>
       <c r="Y20" t="n">
-        <v>1571.190062176653</v>
+        <v>1601.238393600531</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>859.1382992416497</v>
+        <v>859.1382992416502</v>
       </c>
       <c r="C21" t="n">
-        <v>684.6852699605228</v>
+        <v>684.6852699605232</v>
       </c>
       <c r="D21" t="n">
-        <v>535.7508602992715</v>
+        <v>535.7508602992719</v>
       </c>
       <c r="E21" t="n">
-        <v>376.513405293816</v>
+        <v>376.5134052938164</v>
       </c>
       <c r="F21" t="n">
-        <v>229.978847320701</v>
+        <v>229.9788473207014</v>
       </c>
       <c r="G21" t="n">
-        <v>143.8929411728695</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H21" t="n">
-        <v>49.81782892870198</v>
+        <v>71.33540390088821</v>
       </c>
       <c r="I21" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J21" t="n">
         <v>234.0659274310207</v>
@@ -5837,19 +5837,19 @@
         <v>413.7755328491961</v>
       </c>
       <c r="L21" t="n">
-        <v>701.7398160318586</v>
+        <v>848.5985338331543</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.689586177934</v>
+        <v>1203.996138081826</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.185219170621</v>
+        <v>1583.208704312131</v>
       </c>
       <c r="O21" t="n">
-        <v>2115.870836884378</v>
+        <v>1907.894322025888</v>
       </c>
       <c r="P21" t="n">
-        <v>2357.126603646087</v>
+        <v>2149.150088787597</v>
       </c>
       <c r="Q21" t="n">
         <v>2468.48049822852</v>
@@ -5858,16 +5858,16 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S21" t="n">
-        <v>2354.581362957453</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T21" t="n">
-        <v>2160.447087779</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U21" t="n">
         <v>1932.354900192149</v>
       </c>
       <c r="V21" t="n">
-        <v>1697.202791960406</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W21" t="n">
         <v>1442.965435232205</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>252.0383784182901</v>
+        <v>1087.315231116727</v>
       </c>
       <c r="C22" t="n">
-        <v>217.8308434883834</v>
+        <v>918.37904818882</v>
       </c>
       <c r="D22" t="n">
-        <v>217.8308434883834</v>
+        <v>768.2624087764842</v>
       </c>
       <c r="E22" t="n">
-        <v>217.8308434883834</v>
+        <v>620.3493151940911</v>
       </c>
       <c r="F22" t="n">
-        <v>217.8308434883834</v>
+        <v>473.4593676961807</v>
       </c>
       <c r="G22" t="n">
-        <v>49.81782892870198</v>
+        <v>305.4463531364993</v>
       </c>
       <c r="H22" t="n">
-        <v>49.81782892870198</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I22" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J22" t="n">
-        <v>73.4472800547763</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K22" t="n">
         <v>242.1145636490678</v>
       </c>
       <c r="L22" t="n">
-        <v>513.4770511394355</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M22" t="n">
-        <v>809.97986946425</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N22" t="n">
         <v>1104.867129907538</v>
@@ -5931,31 +5931,31 @@
         <v>1557.066378230431</v>
       </c>
       <c r="Q22" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R22" t="n">
         <v>1505.443183112052</v>
       </c>
       <c r="S22" t="n">
-        <v>1308.3517434821</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="T22" t="n">
-        <v>1085.259822331916</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="U22" t="n">
-        <v>796.1400366611375</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="V22" t="n">
-        <v>541.4555484552507</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="W22" t="n">
-        <v>252.0383784182901</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="X22" t="n">
-        <v>252.0383784182901</v>
+        <v>1489.756275090497</v>
       </c>
       <c r="Y22" t="n">
-        <v>252.0383784182901</v>
+        <v>1268.963695946966</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1414.32401404735</v>
+        <v>1061.555358777235</v>
       </c>
       <c r="C23" t="n">
-        <v>1045.361497106938</v>
+        <v>692.5928418368237</v>
       </c>
       <c r="D23" t="n">
-        <v>687.0957985001876</v>
+        <v>334.3271432300732</v>
       </c>
       <c r="E23" t="n">
-        <v>687.0957985001876</v>
+        <v>334.3271432300732</v>
       </c>
       <c r="F23" t="n">
-        <v>687.0957985001876</v>
+        <v>334.3271432300732</v>
       </c>
       <c r="G23" t="n">
-        <v>271.3318598482111</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H23" t="n">
-        <v>119.9460879270497</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I23" t="n">
         <v>51.29057888696726</v>
@@ -5992,22 +5992,22 @@
         <v>182.6484035402486</v>
       </c>
       <c r="K23" t="n">
-        <v>430.2582499382138</v>
+        <v>430.2582499382139</v>
       </c>
       <c r="L23" t="n">
-        <v>774.34192141318</v>
+        <v>774.3419214131802</v>
       </c>
       <c r="M23" t="n">
-        <v>1188.870741198923</v>
+        <v>1188.870741198924</v>
       </c>
       <c r="N23" t="n">
-        <v>1621.826371324918</v>
+        <v>1614.720879044172</v>
       </c>
       <c r="O23" t="n">
-        <v>2010.609319556535</v>
+        <v>2003.503827275789</v>
       </c>
       <c r="P23" t="n">
-        <v>2307.92557020186</v>
+        <v>2300.820077921114</v>
       </c>
       <c r="Q23" t="n">
         <v>2483.024945800757</v>
@@ -6028,13 +6028,13 @@
         <v>2564.528944348363</v>
       </c>
       <c r="W23" t="n">
-        <v>2564.528944348363</v>
+        <v>2211.760289078249</v>
       </c>
       <c r="X23" t="n">
-        <v>2191.063186087283</v>
+        <v>1838.294530817169</v>
       </c>
       <c r="Y23" t="n">
-        <v>1800.923854111471</v>
+        <v>1448.155198841357</v>
       </c>
     </row>
     <row r="24">
@@ -6059,37 +6059,37 @@
         <v>303.6163452339656</v>
       </c>
       <c r="G24" t="n">
-        <v>166.8832661033211</v>
+        <v>166.8832661033213</v>
       </c>
       <c r="H24" t="n">
-        <v>72.80815385915349</v>
+        <v>72.80815385915348</v>
       </c>
       <c r="I24" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J24" t="n">
-        <v>150.1179492371871</v>
+        <v>235.538677389286</v>
       </c>
       <c r="K24" t="n">
-        <v>329.8275546553625</v>
+        <v>634.2717485637555</v>
       </c>
       <c r="L24" t="n">
-        <v>617.791837838025</v>
+        <v>922.2360317464181</v>
       </c>
       <c r="M24" t="n">
-        <v>1252.512751564245</v>
+        <v>1277.63363599509</v>
       </c>
       <c r="N24" t="n">
-        <v>1887.233665290465</v>
+        <v>1656.846202225395</v>
       </c>
       <c r="O24" t="n">
-        <v>2211.919283004222</v>
+        <v>1981.531819939152</v>
       </c>
       <c r="P24" t="n">
-        <v>2453.17504976593</v>
+        <v>2222.787586700861</v>
       </c>
       <c r="Q24" t="n">
-        <v>2564.528944348363</v>
+        <v>2542.117996141784</v>
       </c>
       <c r="R24" t="n">
         <v>2564.528944348363</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1741.904539594457</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="C25" t="n">
-        <v>1572.968356666551</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="D25" t="n">
-        <v>1467.942460712124</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="E25" t="n">
-        <v>1320.02936712973</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="F25" t="n">
-        <v>1173.13941963182</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G25" t="n">
-        <v>1005.126405072139</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H25" t="n">
-        <v>1005.126405072139</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I25" t="n">
-        <v>1005.126405072139</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J25" t="n">
-        <v>1028.755856198213</v>
+        <v>74.9200300130416</v>
       </c>
       <c r="K25" t="n">
-        <v>1197.423139792505</v>
+        <v>243.5873136073331</v>
       </c>
       <c r="L25" t="n">
-        <v>1468.785627282872</v>
+        <v>514.9498010977009</v>
       </c>
       <c r="M25" t="n">
-        <v>1765.288445607687</v>
+        <v>811.4526194225153</v>
       </c>
       <c r="N25" t="n">
-        <v>2060.175706050975</v>
+        <v>1106.339879865804</v>
       </c>
       <c r="O25" t="n">
-        <v>2316.535524442039</v>
+        <v>1362.699698256868</v>
       </c>
       <c r="P25" t="n">
-        <v>2512.374954373867</v>
+        <v>1558.539128188696</v>
       </c>
       <c r="Q25" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="R25" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="S25" t="n">
-        <v>2367.437504718412</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.345583568227</v>
+        <v>1387.601197013007</v>
       </c>
       <c r="U25" t="n">
-        <v>2144.345583568227</v>
+        <v>1098.481411342229</v>
       </c>
       <c r="V25" t="n">
-        <v>2144.345583568227</v>
+        <v>843.7969231363421</v>
       </c>
       <c r="W25" t="n">
-        <v>2144.345583568227</v>
+        <v>554.3797530993816</v>
       </c>
       <c r="X25" t="n">
-        <v>2144.345583568227</v>
+        <v>326.3902022013642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1923.553004424697</v>
+        <v>232.939043717207</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1435.021117038315</v>
+        <v>946.6959313686339</v>
       </c>
       <c r="C26" t="n">
-        <v>1435.021117038315</v>
+        <v>946.6959313686339</v>
       </c>
       <c r="D26" t="n">
-        <v>1435.021117038315</v>
+        <v>946.6959313686339</v>
       </c>
       <c r="E26" t="n">
-        <v>1049.232864440071</v>
+        <v>946.6959313686339</v>
       </c>
       <c r="F26" t="n">
-        <v>638.2469596504634</v>
+        <v>535.7100265790262</v>
       </c>
       <c r="G26" t="n">
-        <v>355.9558858478247</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="H26" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I26" t="n">
         <v>51.29057888696726</v>
@@ -6229,10 +6229,10 @@
         <v>182.6484035402486</v>
       </c>
       <c r="K26" t="n">
-        <v>430.2582499382138</v>
+        <v>430.2582499382139</v>
       </c>
       <c r="L26" t="n">
-        <v>774.34192141318</v>
+        <v>774.3419214131802</v>
       </c>
       <c r="M26" t="n">
         <v>1261.035489153923</v>
@@ -6253,25 +6253,25 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S26" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T26" t="n">
-        <v>2564.528944348363</v>
+        <v>2229.476243239409</v>
       </c>
       <c r="U26" t="n">
-        <v>2564.528944348363</v>
+        <v>2229.476243239409</v>
       </c>
       <c r="V26" t="n">
-        <v>2564.528944348363</v>
+        <v>1898.413355895838</v>
       </c>
       <c r="W26" t="n">
-        <v>2211.760289078249</v>
+        <v>1545.644700625724</v>
       </c>
       <c r="X26" t="n">
-        <v>2211.760289078249</v>
+        <v>1172.178942364644</v>
       </c>
       <c r="Y26" t="n">
-        <v>1821.620957102437</v>
+        <v>1172.178942364644</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>932.7757971549145</v>
+        <v>932.7757971549141</v>
       </c>
       <c r="C27" t="n">
-        <v>758.3227678737875</v>
+        <v>758.3227678737871</v>
       </c>
       <c r="D27" t="n">
-        <v>609.3883582125361</v>
+        <v>609.3883582125359</v>
       </c>
       <c r="E27" t="n">
-        <v>450.1509032070805</v>
+        <v>450.1509032070804</v>
       </c>
       <c r="F27" t="n">
-        <v>303.6163452339656</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G27" t="n">
-        <v>166.8832661033211</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H27" t="n">
         <v>72.80815385915349</v>
@@ -6305,22 +6305,22 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J27" t="n">
-        <v>110.7085524022812</v>
+        <v>110.7085524022813</v>
       </c>
       <c r="K27" t="n">
-        <v>290.4181578204566</v>
+        <v>549.3810706752876</v>
       </c>
       <c r="L27" t="n">
-        <v>578.3824410031191</v>
+        <v>837.3453538579502</v>
       </c>
       <c r="M27" t="n">
-        <v>1213.103354729339</v>
+        <v>1192.742958106622</v>
       </c>
       <c r="N27" t="n">
-        <v>1847.824268455559</v>
+        <v>1571.955524336927</v>
       </c>
       <c r="O27" t="n">
-        <v>2211.919283004222</v>
+        <v>1896.641142050684</v>
       </c>
       <c r="P27" t="n">
         <v>2453.17504976593</v>
@@ -6341,7 +6341,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V27" t="n">
-        <v>1770.840289873671</v>
+        <v>1770.84028987367</v>
       </c>
       <c r="W27" t="n">
         <v>1516.602933145469</v>
@@ -6350,7 +6350,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y27" t="n">
-        <v>1100.991134174983</v>
+        <v>1100.991134174982</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1005.126405072139</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="C28" t="n">
-        <v>1005.126405072139</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="D28" t="n">
-        <v>1005.126405072139</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="E28" t="n">
-        <v>1005.126405072139</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="F28" t="n">
-        <v>1005.126405072139</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="G28" t="n">
-        <v>1005.126405072139</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="H28" t="n">
-        <v>1005.126405072139</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="I28" t="n">
-        <v>1005.126405072139</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J28" t="n">
-        <v>1028.755856198213</v>
+        <v>74.9200300130416</v>
       </c>
       <c r="K28" t="n">
-        <v>1197.423139792505</v>
+        <v>243.5873136073331</v>
       </c>
       <c r="L28" t="n">
-        <v>1468.785627282872</v>
+        <v>514.9498010977009</v>
       </c>
       <c r="M28" t="n">
-        <v>1765.288445607687</v>
+        <v>811.4526194225153</v>
       </c>
       <c r="N28" t="n">
-        <v>2060.175706050975</v>
+        <v>1106.339879865804</v>
       </c>
       <c r="O28" t="n">
-        <v>2316.535524442039</v>
+        <v>1362.699698256868</v>
       </c>
       <c r="P28" t="n">
-        <v>2512.374954373867</v>
+        <v>1558.539128188696</v>
       </c>
       <c r="Q28" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="R28" t="n">
-        <v>2460.751759255488</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="S28" t="n">
-        <v>2263.660319625537</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="T28" t="n">
-        <v>2040.568398475352</v>
+        <v>1366.911703075389</v>
       </c>
       <c r="U28" t="n">
-        <v>1751.448612804574</v>
+        <v>1077.79191740461</v>
       </c>
       <c r="V28" t="n">
-        <v>1496.764124598687</v>
+        <v>1077.79191740461</v>
       </c>
       <c r="W28" t="n">
-        <v>1207.346954561727</v>
+        <v>788.3747473676498</v>
       </c>
       <c r="X28" t="n">
-        <v>1005.126405072139</v>
+        <v>560.3851964696324</v>
       </c>
       <c r="Y28" t="n">
-        <v>1005.126405072139</v>
+        <v>339.5926173261023</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>848.0647362748191</v>
+        <v>972.4305827211169</v>
       </c>
       <c r="C29" t="n">
-        <v>848.0647362748191</v>
+        <v>972.4305827211169</v>
       </c>
       <c r="D29" t="n">
-        <v>848.0647362748191</v>
+        <v>972.4305827211169</v>
       </c>
       <c r="E29" t="n">
-        <v>462.2764836765748</v>
+        <v>586.6423301228726</v>
       </c>
       <c r="F29" t="n">
-        <v>51.29057888696727</v>
+        <v>535.7100265790262</v>
       </c>
       <c r="G29" t="n">
-        <v>51.29057888696727</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="H29" t="n">
-        <v>51.29057888696727</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I29" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J29" t="n">
-        <v>182.6484035402486</v>
+        <v>254.8131514952473</v>
       </c>
       <c r="K29" t="n">
-        <v>430.2582499382138</v>
+        <v>502.4229978932127</v>
       </c>
       <c r="L29" t="n">
-        <v>774.34192141318</v>
+        <v>846.506669368179</v>
       </c>
       <c r="M29" t="n">
-        <v>1188.870741198923</v>
+        <v>1261.035489153923</v>
       </c>
       <c r="N29" t="n">
-        <v>1614.720879044172</v>
+        <v>1686.885626999171</v>
       </c>
       <c r="O29" t="n">
-        <v>2003.503827275789</v>
+        <v>2075.668575230788</v>
       </c>
       <c r="P29" t="n">
         <v>2372.984825876113</v>
       </c>
       <c r="Q29" t="n">
-        <v>2548.084201475011</v>
+        <v>2548.08420147501</v>
       </c>
       <c r="R29" t="n">
         <v>2564.528944348363</v>
@@ -6493,22 +6493,22 @@
         <v>2564.528944348363</v>
       </c>
       <c r="T29" t="n">
-        <v>2564.528944348363</v>
+        <v>2355.524205837086</v>
       </c>
       <c r="U29" t="n">
-        <v>2564.528944348363</v>
+        <v>2101.938410031164</v>
       </c>
       <c r="V29" t="n">
-        <v>2233.466057004793</v>
+        <v>2101.938410031164</v>
       </c>
       <c r="W29" t="n">
-        <v>1880.697401734679</v>
+        <v>1749.16975476105</v>
       </c>
       <c r="X29" t="n">
-        <v>1507.231643473599</v>
+        <v>1749.16975476105</v>
       </c>
       <c r="Y29" t="n">
-        <v>1117.092311497787</v>
+        <v>1359.030422785239</v>
       </c>
     </row>
     <row r="30">
@@ -6524,43 +6524,43 @@
         <v>758.322767873787</v>
       </c>
       <c r="D30" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125356</v>
       </c>
       <c r="E30" t="n">
-        <v>450.1509032070803</v>
+        <v>450.1509032070801</v>
       </c>
       <c r="F30" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339651</v>
       </c>
       <c r="G30" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033211</v>
       </c>
       <c r="H30" t="n">
-        <v>72.80815385915349</v>
+        <v>72.80815385915382</v>
       </c>
       <c r="I30" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J30" t="n">
-        <v>110.7085524022813</v>
+        <v>235.538677389286</v>
       </c>
       <c r="K30" t="n">
-        <v>290.4181578204566</v>
+        <v>634.2717485637555</v>
       </c>
       <c r="L30" t="n">
-        <v>578.3824410031191</v>
+        <v>922.2360317464181</v>
       </c>
       <c r="M30" t="n">
-        <v>1213.103354729339</v>
+        <v>1277.63363599509</v>
       </c>
       <c r="N30" t="n">
-        <v>1847.824268455559</v>
+        <v>1656.846202225395</v>
       </c>
       <c r="O30" t="n">
-        <v>2172.509886169316</v>
+        <v>1981.531819939152</v>
       </c>
       <c r="P30" t="n">
-        <v>2413.765652931025</v>
+        <v>2222.787586700861</v>
       </c>
       <c r="Q30" t="n">
         <v>2542.117996141784</v>
@@ -6578,7 +6578,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V30" t="n">
-        <v>1770.840289873671</v>
+        <v>1770.84028987367</v>
       </c>
       <c r="W30" t="n">
         <v>1516.602933145469</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="C31" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="D31" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="E31" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="F31" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G31" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H31" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I31" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J31" t="n">
-        <v>74.92003001304158</v>
+        <v>74.9200300130416</v>
       </c>
       <c r="K31" t="n">
         <v>243.5873136073331</v>
       </c>
       <c r="L31" t="n">
-        <v>514.9498010977007</v>
+        <v>514.9498010977009</v>
       </c>
       <c r="M31" t="n">
-        <v>811.4526194225152</v>
+        <v>811.4526194225153</v>
       </c>
       <c r="N31" t="n">
-        <v>1106.339879865803</v>
+        <v>1106.339879865804</v>
       </c>
       <c r="O31" t="n">
-        <v>1362.699698256867</v>
+        <v>1362.699698256868</v>
       </c>
       <c r="P31" t="n">
         <v>1558.539128188696</v>
       </c>
       <c r="Q31" t="n">
-        <v>1610.693118163191</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="R31" t="n">
-        <v>1532.684934478746</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="S31" t="n">
-        <v>1335.593494848795</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="T31" t="n">
-        <v>1112.50157369861</v>
+        <v>1225.822832001602</v>
       </c>
       <c r="U31" t="n">
-        <v>823.3817880278322</v>
+        <v>1225.822832001602</v>
       </c>
       <c r="V31" t="n">
-        <v>568.6972998219453</v>
+        <v>971.1383437957149</v>
       </c>
       <c r="W31" t="n">
-        <v>279.2801297849846</v>
+        <v>681.7211737587544</v>
       </c>
       <c r="X31" t="n">
-        <v>51.29057888696727</v>
+        <v>453.731622860737</v>
       </c>
       <c r="Y31" t="n">
-        <v>51.29057888696727</v>
+        <v>232.939043717207</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1414.32401404735</v>
+        <v>1232.962556072456</v>
       </c>
       <c r="C32" t="n">
-        <v>1045.361497106938</v>
+        <v>864.0000391320445</v>
       </c>
       <c r="D32" t="n">
-        <v>1045.361497106938</v>
+        <v>505.734340525294</v>
       </c>
       <c r="E32" t="n">
-        <v>659.5732445086942</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="F32" t="n">
-        <v>248.5873397190866</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="G32" t="n">
-        <v>51.29057888696727</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="H32" t="n">
-        <v>51.29057888696727</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I32" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J32" t="n">
         <v>182.6484035402486</v>
       </c>
       <c r="K32" t="n">
-        <v>502.4229978932134</v>
+        <v>430.2582499382139</v>
       </c>
       <c r="L32" t="n">
-        <v>846.5066693681797</v>
+        <v>774.3419214131802</v>
       </c>
       <c r="M32" t="n">
-        <v>1261.035489153923</v>
+        <v>1188.870741198924</v>
       </c>
       <c r="N32" t="n">
-        <v>1686.885626999171</v>
+        <v>1614.720879044172</v>
       </c>
       <c r="O32" t="n">
-        <v>2075.668575230788</v>
+        <v>2003.503827275789</v>
       </c>
       <c r="P32" t="n">
-        <v>2372.984825876113</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q32" t="n">
-        <v>2548.084201475011</v>
+        <v>2483.024945800757</v>
       </c>
       <c r="R32" t="n">
         <v>2564.528944348363</v>
@@ -6736,16 +6736,16 @@
         <v>2564.528944348363</v>
       </c>
       <c r="V32" t="n">
-        <v>2564.528944348363</v>
+        <v>2233.466057004792</v>
       </c>
       <c r="W32" t="n">
-        <v>2564.528944348363</v>
+        <v>2233.466057004792</v>
       </c>
       <c r="X32" t="n">
-        <v>2191.063186087284</v>
+        <v>1860.000298743712</v>
       </c>
       <c r="Y32" t="n">
-        <v>1800.923854111472</v>
+        <v>1619.562396136578</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>72.80815385915349</v>
       </c>
       <c r="I33" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J33" t="n">
         <v>110.7085524022813</v>
       </c>
       <c r="K33" t="n">
-        <v>290.4181578204566</v>
+        <v>318.9936076102179</v>
       </c>
       <c r="L33" t="n">
-        <v>578.3824410031191</v>
+        <v>606.9578907928804</v>
       </c>
       <c r="M33" t="n">
-        <v>1213.103354729339</v>
+        <v>962.355495041552</v>
       </c>
       <c r="N33" t="n">
-        <v>1847.824268455559</v>
+        <v>1341.568061271857</v>
       </c>
       <c r="O33" t="n">
-        <v>2172.509886169316</v>
+        <v>1666.253678985614</v>
       </c>
       <c r="P33" t="n">
-        <v>2413.765652931025</v>
+        <v>2222.787586700861</v>
       </c>
       <c r="Q33" t="n">
-        <v>2564.528944348363</v>
+        <v>2542.117996141784</v>
       </c>
       <c r="R33" t="n">
         <v>2564.528944348363</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1575.657891337528</v>
+        <v>332.3836799556823</v>
       </c>
       <c r="C34" t="n">
-        <v>1575.657891337528</v>
+        <v>163.4474970277754</v>
       </c>
       <c r="D34" t="n">
-        <v>1575.657891337528</v>
+        <v>163.4474970277754</v>
       </c>
       <c r="E34" t="n">
-        <v>1575.657891337528</v>
+        <v>163.4474970277754</v>
       </c>
       <c r="F34" t="n">
-        <v>1428.767943839618</v>
+        <v>163.4474970277754</v>
       </c>
       <c r="G34" t="n">
-        <v>1260.754929279937</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H34" t="n">
-        <v>1111.779978681034</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I34" t="n">
-        <v>1005.126405072139</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J34" t="n">
-        <v>1028.755856198213</v>
+        <v>74.9200300130416</v>
       </c>
       <c r="K34" t="n">
-        <v>1197.423139792505</v>
+        <v>243.5873136073331</v>
       </c>
       <c r="L34" t="n">
-        <v>1468.785627282873</v>
+        <v>514.9498010977009</v>
       </c>
       <c r="M34" t="n">
-        <v>1765.288445607687</v>
+        <v>811.4526194225153</v>
       </c>
       <c r="N34" t="n">
-        <v>2060.175706050975</v>
+        <v>1106.339879865804</v>
       </c>
       <c r="O34" t="n">
-        <v>2316.535524442039</v>
+        <v>1362.699698256868</v>
       </c>
       <c r="P34" t="n">
-        <v>2512.374954373868</v>
+        <v>1558.539128188696</v>
       </c>
       <c r="Q34" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="R34" t="n">
-        <v>2460.751759255489</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="S34" t="n">
-        <v>2263.660319625537</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="T34" t="n">
-        <v>2040.568398475353</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="U34" t="n">
-        <v>1830.342379543415</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="V34" t="n">
-        <v>1575.657891337528</v>
+        <v>1252.23144486443</v>
       </c>
       <c r="W34" t="n">
-        <v>1575.657891337528</v>
+        <v>962.8142748274695</v>
       </c>
       <c r="X34" t="n">
-        <v>1575.657891337528</v>
+        <v>734.8247239294521</v>
       </c>
       <c r="Y34" t="n">
-        <v>1575.657891337528</v>
+        <v>514.032144785922</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1989.584140515693</v>
+        <v>793.4085096902909</v>
       </c>
       <c r="C35" t="n">
-        <v>1620.621623575281</v>
+        <v>424.4459927498792</v>
       </c>
       <c r="D35" t="n">
-        <v>1262.35592496853</v>
+        <v>66.18029414312866</v>
       </c>
       <c r="E35" t="n">
-        <v>876.5676723702861</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="F35" t="n">
-        <v>465.5817675806785</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="G35" t="n">
-        <v>49.81782892870203</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H35" t="n">
-        <v>49.81782892870203</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I35" t="n">
-        <v>49.81782892870203</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J35" t="n">
-        <v>181.1756535819862</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K35" t="n">
-        <v>428.7854999799515</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L35" t="n">
-        <v>772.8691714549177</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M35" t="n">
-        <v>1187.397991240661</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N35" t="n">
-        <v>1613.248129085909</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O35" t="n">
-        <v>2002.031077317526</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P35" t="n">
-        <v>2299.347327962851</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q35" t="n">
-        <v>2474.446703561749</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R35" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S35" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T35" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="U35" t="n">
-        <v>2376.183980579814</v>
+        <v>2237.305650629177</v>
       </c>
       <c r="V35" t="n">
-        <v>2376.183980579814</v>
+        <v>1906.242763285607</v>
       </c>
       <c r="W35" t="n">
-        <v>2376.183980579814</v>
+        <v>1553.474108015492</v>
       </c>
       <c r="X35" t="n">
-        <v>2376.183980579814</v>
+        <v>1180.008349754413</v>
       </c>
       <c r="Y35" t="n">
-        <v>2376.183980579814</v>
+        <v>1180.008349754413</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416497</v>
       </c>
       <c r="C36" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605228</v>
       </c>
       <c r="D36" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992715</v>
       </c>
       <c r="E36" t="n">
-        <v>448.6781532488152</v>
+        <v>376.513405293816</v>
       </c>
       <c r="F36" t="n">
-        <v>302.1435952757001</v>
+        <v>229.978847320701</v>
       </c>
       <c r="G36" t="n">
-        <v>165.4105161450558</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H36" t="n">
-        <v>71.33540390088825</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I36" t="n">
-        <v>49.81782892870203</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J36" t="n">
-        <v>109.235802444016</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K36" t="n">
-        <v>288.9454078621914</v>
+        <v>413.7755328491961</v>
       </c>
       <c r="L36" t="n">
-        <v>576.9096910448538</v>
+        <v>701.7398160318587</v>
       </c>
       <c r="M36" t="n">
-        <v>1142.573585867968</v>
+        <v>1057.13742028053</v>
       </c>
       <c r="N36" t="n">
-        <v>1521.786152098272</v>
+        <v>1436.349986510835</v>
       </c>
       <c r="O36" t="n">
-        <v>2138.28178509096</v>
+        <v>1907.894322025887</v>
       </c>
       <c r="P36" t="n">
-        <v>2379.537551852669</v>
+        <v>2149.150088787596</v>
       </c>
       <c r="Q36" t="n">
-        <v>2490.891446435101</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R36" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S36" t="n">
-        <v>2354.581362957456</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T36" t="n">
-        <v>2160.447087779003</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U36" t="n">
-        <v>1932.354900192151</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V36" t="n">
-        <v>1697.202791960409</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W36" t="n">
-        <v>1442.965435232207</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X36" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y36" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="37">
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>198.792779527604</v>
+        <v>832.7485639254384</v>
       </c>
       <c r="C37" t="n">
-        <v>198.792779527604</v>
+        <v>663.8123809975315</v>
       </c>
       <c r="D37" t="n">
-        <v>198.792779527604</v>
+        <v>513.6957415851957</v>
       </c>
       <c r="E37" t="n">
-        <v>198.792779527604</v>
+        <v>513.6957415851957</v>
       </c>
       <c r="F37" t="n">
-        <v>198.792779527604</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="G37" t="n">
         <v>198.792779527604</v>
       </c>
       <c r="H37" t="n">
-        <v>49.81782892870203</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I37" t="n">
-        <v>49.81782892870203</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J37" t="n">
-        <v>73.44728005477634</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K37" t="n">
         <v>242.1145636490678</v>
       </c>
       <c r="L37" t="n">
-        <v>513.4770511394355</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M37" t="n">
-        <v>809.97986946425</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N37" t="n">
         <v>1104.867129907538</v>
@@ -7116,31 +7116,31 @@
         <v>1557.066378230431</v>
       </c>
       <c r="Q37" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R37" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S37" t="n">
-        <v>1308.3517434821</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T37" t="n">
-        <v>1085.259822331916</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="U37" t="n">
-        <v>796.1400366611375</v>
+        <v>1123.009142904197</v>
       </c>
       <c r="V37" t="n">
-        <v>541.4555484552507</v>
+        <v>1123.009142904197</v>
       </c>
       <c r="W37" t="n">
-        <v>419.5853586711341</v>
+        <v>833.5919728672366</v>
       </c>
       <c r="X37" t="n">
-        <v>419.5853586711341</v>
+        <v>833.5919728672366</v>
       </c>
       <c r="Y37" t="n">
-        <v>198.792779527604</v>
+        <v>833.5919728672366</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1340.686516134085</v>
+        <v>1647.253744766167</v>
       </c>
       <c r="C38" t="n">
-        <v>971.7239991936738</v>
+        <v>1278.291227825756</v>
       </c>
       <c r="D38" t="n">
-        <v>613.4583005869233</v>
+        <v>920.0255292190052</v>
       </c>
       <c r="E38" t="n">
-        <v>227.6700479886791</v>
+        <v>534.2372766207609</v>
       </c>
       <c r="F38" t="n">
-        <v>227.6700479886791</v>
+        <v>534.2372766207609</v>
       </c>
       <c r="G38" t="n">
-        <v>49.81782892870198</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="H38" t="n">
-        <v>49.81782892870198</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I38" t="n">
         <v>49.81782892870198</v>
       </c>
       <c r="J38" t="n">
-        <v>181.1756535819835</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K38" t="n">
         <v>428.7854999799487</v>
@@ -7183,16 +7183,16 @@
         <v>772.869171454915</v>
       </c>
       <c r="M38" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N38" t="n">
         <v>1613.248129085907</v>
       </c>
       <c r="O38" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P38" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q38" t="n">
         <v>2474.446703561746</v>
@@ -7201,25 +7201,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S38" t="n">
-        <v>2490.891446435099</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T38" t="n">
-        <v>2490.891446435099</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="U38" t="n">
-        <v>2490.891446435099</v>
+        <v>2111.2576880315</v>
       </c>
       <c r="V38" t="n">
-        <v>2490.891446435099</v>
+        <v>1780.19480068793</v>
       </c>
       <c r="W38" t="n">
-        <v>2490.891446435099</v>
+        <v>1780.19480068793</v>
       </c>
       <c r="X38" t="n">
-        <v>2117.425688174019</v>
+        <v>1780.19480068793</v>
       </c>
       <c r="Y38" t="n">
-        <v>1727.286356198207</v>
+        <v>1647.253744766167</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>909.7854722244628</v>
+        <v>859.1382992416497</v>
       </c>
       <c r="C39" t="n">
-        <v>735.3324429433358</v>
+        <v>684.6852699605228</v>
       </c>
       <c r="D39" t="n">
-        <v>586.3980332820845</v>
+        <v>535.7508602992715</v>
       </c>
       <c r="E39" t="n">
-        <v>427.1605782766289</v>
+        <v>376.513405293816</v>
       </c>
       <c r="F39" t="n">
-        <v>280.6260203035139</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8929411728695</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H39" t="n">
-        <v>49.81782892870198</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I39" t="n">
         <v>49.81782892870198</v>
       </c>
       <c r="J39" t="n">
-        <v>109.235802444016</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K39" t="n">
-        <v>288.9454078621914</v>
+        <v>413.7755328491961</v>
       </c>
       <c r="L39" t="n">
-        <v>763.7078559446861</v>
+        <v>701.7398160318587</v>
       </c>
       <c r="M39" t="n">
-        <v>1119.105460193358</v>
+        <v>1057.13742028053</v>
       </c>
       <c r="N39" t="n">
-        <v>1498.318026423662</v>
+        <v>1436.349986510835</v>
       </c>
       <c r="O39" t="n">
-        <v>1823.003644137419</v>
+        <v>1907.894322025887</v>
       </c>
       <c r="P39" t="n">
-        <v>2379.537551852666</v>
+        <v>2149.150088787596</v>
       </c>
       <c r="Q39" t="n">
-        <v>2490.891446435099</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R39" t="n">
         <v>2490.891446435099</v>
       </c>
       <c r="S39" t="n">
-        <v>2405.228535940266</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T39" t="n">
-        <v>2211.094260761814</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U39" t="n">
-        <v>1983.002073174962</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V39" t="n">
-        <v>1747.849964943219</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W39" t="n">
-        <v>1493.612608215017</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X39" t="n">
-        <v>1285.761108009485</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y39" t="n">
-        <v>1078.000809244531</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>672.2217391984259</v>
+        <v>664.7355493657569</v>
       </c>
       <c r="C40" t="n">
-        <v>503.285556270519</v>
+        <v>495.79936643785</v>
       </c>
       <c r="D40" t="n">
-        <v>353.1689168581833</v>
+        <v>345.6827270255143</v>
       </c>
       <c r="E40" t="n">
-        <v>353.1689168581833</v>
+        <v>345.6827270255143</v>
       </c>
       <c r="F40" t="n">
-        <v>353.1689168581833</v>
+        <v>198.792779527604</v>
       </c>
       <c r="G40" t="n">
-        <v>185.1559022985018</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H40" t="n">
         <v>49.81782892870198</v>
@@ -7332,16 +7332,16 @@
         <v>49.81782892870198</v>
       </c>
       <c r="J40" t="n">
-        <v>73.4472800547763</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K40" t="n">
         <v>242.1145636490678</v>
       </c>
       <c r="L40" t="n">
-        <v>513.4770511394355</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M40" t="n">
-        <v>809.97986946425</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N40" t="n">
         <v>1104.867129907538</v>
@@ -7353,31 +7353,31 @@
         <v>1557.066378230431</v>
       </c>
       <c r="Q40" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R40" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S40" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T40" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="U40" t="n">
-        <v>1216.323397441273</v>
+        <v>1329.058053299901</v>
       </c>
       <c r="V40" t="n">
-        <v>961.6389092353864</v>
+        <v>1074.373565094014</v>
       </c>
       <c r="W40" t="n">
-        <v>672.2217391984259</v>
+        <v>1074.373565094014</v>
       </c>
       <c r="X40" t="n">
-        <v>672.2217391984259</v>
+        <v>846.3840141959967</v>
       </c>
       <c r="Y40" t="n">
-        <v>672.2217391984259</v>
+        <v>846.3840141959967</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>418.7803458691137</v>
+        <v>525.3273265467737</v>
       </c>
       <c r="C41" t="n">
-        <v>49.81782892870198</v>
+        <v>525.3273265467737</v>
       </c>
       <c r="D41" t="n">
-        <v>49.81782892870198</v>
+        <v>525.3273265467737</v>
       </c>
       <c r="E41" t="n">
-        <v>49.81782892870198</v>
+        <v>525.3273265467737</v>
       </c>
       <c r="F41" t="n">
-        <v>49.81782892870198</v>
+        <v>525.3273265467737</v>
       </c>
       <c r="G41" t="n">
-        <v>49.81782892870198</v>
+        <v>109.5633878947972</v>
       </c>
       <c r="H41" t="n">
-        <v>49.81782892870198</v>
+        <v>109.5633878947972</v>
       </c>
       <c r="I41" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J41" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819832</v>
       </c>
       <c r="K41" t="n">
         <v>428.7854999799488</v>
@@ -7420,7 +7420,7 @@
         <v>772.8691714549152</v>
       </c>
       <c r="M41" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N41" t="n">
         <v>1613.248129085907</v>
@@ -7432,31 +7432,31 @@
         <v>2299.347327962849</v>
       </c>
       <c r="Q41" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R41" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S41" t="n">
-        <v>2364.843483837422</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="T41" t="n">
-        <v>2252.816818783812</v>
+        <v>2281.886707923823</v>
       </c>
       <c r="U41" t="n">
-        <v>2252.816818783812</v>
+        <v>2028.300912117901</v>
       </c>
       <c r="V41" t="n">
-        <v>1921.753931440241</v>
+        <v>2028.300912117901</v>
       </c>
       <c r="W41" t="n">
-        <v>1568.985276170127</v>
+        <v>1675.532256847787</v>
       </c>
       <c r="X41" t="n">
-        <v>1195.519517909047</v>
+        <v>1302.066498586707</v>
       </c>
       <c r="Y41" t="n">
-        <v>805.3801859332355</v>
+        <v>911.9271666108955</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>859.1382992416497</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C42" t="n">
-        <v>684.6852699605228</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D42" t="n">
-        <v>535.7508602992715</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E42" t="n">
-        <v>376.513405293816</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F42" t="n">
-        <v>229.978847320701</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G42" t="n">
-        <v>93.24576819005659</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H42" t="n">
-        <v>49.81782892870198</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I42" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J42" t="n">
-        <v>234.0659274310207</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K42" t="n">
-        <v>560.6342506504916</v>
+        <v>560.6342506504922</v>
       </c>
       <c r="L42" t="n">
-        <v>848.5985338331541</v>
+        <v>848.5985338331548</v>
       </c>
       <c r="M42" t="n">
         <v>1203.996138081826</v>
       </c>
       <c r="N42" t="n">
-        <v>1583.20870431213</v>
+        <v>1583.208704312131</v>
       </c>
       <c r="O42" t="n">
-        <v>1907.894322025887</v>
+        <v>1907.894322025888</v>
       </c>
       <c r="P42" t="n">
-        <v>2149.150088787596</v>
+        <v>2149.150088787597</v>
       </c>
       <c r="Q42" t="n">
         <v>2468.48049822852</v>
       </c>
       <c r="R42" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S42" t="n">
-        <v>2354.581362957453</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T42" t="n">
-        <v>2160.447087779</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U42" t="n">
-        <v>1932.354900192149</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V42" t="n">
-        <v>1697.202791960406</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W42" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X42" t="n">
-        <v>1235.113935026672</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y42" t="n">
-        <v>1027.353636261718</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="43">
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>218.7540118566089</v>
+        <v>980.6616575078316</v>
       </c>
       <c r="C43" t="n">
-        <v>49.81782892870198</v>
+        <v>811.7254745799247</v>
       </c>
       <c r="D43" t="n">
-        <v>49.81782892870198</v>
+        <v>661.6088351675889</v>
       </c>
       <c r="E43" t="n">
-        <v>49.81782892870198</v>
+        <v>513.6957415851958</v>
       </c>
       <c r="F43" t="n">
-        <v>49.81782892870198</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="G43" t="n">
-        <v>49.81782892870198</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H43" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I43" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J43" t="n">
-        <v>73.4472800547763</v>
+        <v>73.44728005477633</v>
       </c>
       <c r="K43" t="n">
         <v>242.1145636490678</v>
       </c>
       <c r="L43" t="n">
-        <v>513.4770511394355</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M43" t="n">
-        <v>809.97986946425</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N43" t="n">
         <v>1104.867129907538</v>
@@ -7590,31 +7590,31 @@
         <v>1557.066378230431</v>
       </c>
       <c r="Q43" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R43" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S43" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T43" t="n">
-        <v>1505.443183112052</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="U43" t="n">
-        <v>1216.323397441273</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="V43" t="n">
-        <v>1138.601776765357</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="W43" t="n">
-        <v>849.184606728396</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="X43" t="n">
-        <v>621.1950558303787</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="Y43" t="n">
-        <v>400.4024766868486</v>
+        <v>1097.008661383964</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1647.253744766167</v>
+        <v>1040.826305353694</v>
       </c>
       <c r="C44" t="n">
-        <v>1278.291227825756</v>
+        <v>671.8637884132822</v>
       </c>
       <c r="D44" t="n">
-        <v>920.0255292190052</v>
+        <v>671.8637884132822</v>
       </c>
       <c r="E44" t="n">
         <v>534.2372766207609</v>
@@ -7645,13 +7645,13 @@
         <v>118.4733379687844</v>
       </c>
       <c r="I44" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J44" t="n">
-        <v>181.1756535819832</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K44" t="n">
-        <v>428.7854999799484</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L44" t="n">
         <v>772.869171454915</v>
@@ -7660,40 +7660,40 @@
         <v>1187.397991240658</v>
       </c>
       <c r="N44" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O44" t="n">
         <v>2002.031077317523</v>
       </c>
       <c r="P44" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q44" t="n">
-        <v>2474.446703561745</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R44" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S44" t="n">
-        <v>2490.891446435098</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T44" t="n">
-        <v>2490.891446435098</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="U44" t="n">
-        <v>2490.891446435098</v>
+        <v>2111.2576880315</v>
       </c>
       <c r="V44" t="n">
-        <v>2490.891446435098</v>
+        <v>1780.19480068793</v>
       </c>
       <c r="W44" t="n">
-        <v>2138.122791164983</v>
+        <v>1427.426145417816</v>
       </c>
       <c r="X44" t="n">
-        <v>1764.657032903904</v>
+        <v>1427.426145417816</v>
       </c>
       <c r="Y44" t="n">
-        <v>1764.657032903904</v>
+        <v>1427.426145417816</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3030471966489</v>
+        <v>909.7854722244628</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8500179155219</v>
+        <v>735.3324429433358</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9156082542706</v>
+        <v>586.3980332820845</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6781532488151</v>
+        <v>427.1605782766289</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1435952757001</v>
+        <v>280.6260203035139</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4105161450557</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H45" t="n">
-        <v>71.3354039008882</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I45" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J45" t="n">
-        <v>234.0659274310207</v>
+        <v>119.104060589863</v>
       </c>
       <c r="K45" t="n">
-        <v>583.04519885707</v>
+        <v>560.6342506504913</v>
       </c>
       <c r="L45" t="n">
-        <v>871.0094820397325</v>
+        <v>848.5985338331539</v>
       </c>
       <c r="M45" t="n">
-        <v>1226.407086288404</v>
+        <v>1203.996138081825</v>
       </c>
       <c r="N45" t="n">
-        <v>1605.619652518709</v>
+        <v>1583.20870431213</v>
       </c>
       <c r="O45" t="n">
-        <v>1930.305270232466</v>
+        <v>1907.894322025887</v>
       </c>
       <c r="P45" t="n">
-        <v>2171.561036994175</v>
+        <v>2149.150088787596</v>
       </c>
       <c r="Q45" t="n">
-        <v>2490.891446435098</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R45" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S45" t="n">
-        <v>2426.746110912452</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T45" t="n">
-        <v>2232.611835734</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V45" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W45" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y45" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="46">
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>366.6671054390019</v>
+        <v>327.2167942497534</v>
       </c>
       <c r="C46" t="n">
-        <v>197.7309225110951</v>
+        <v>327.2167942497534</v>
       </c>
       <c r="D46" t="n">
-        <v>197.7309225110951</v>
+        <v>196.7077764266123</v>
       </c>
       <c r="E46" t="n">
-        <v>49.81782892870196</v>
+        <v>196.7077764266123</v>
       </c>
       <c r="F46" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="G46" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H46" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I46" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J46" t="n">
-        <v>73.44728005477626</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K46" t="n">
-        <v>242.1145636490677</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L46" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M46" t="n">
-        <v>809.9798694642498</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N46" t="n">
         <v>1104.867129907538</v>
@@ -7824,34 +7824,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P46" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q46" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R46" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S46" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T46" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="U46" t="n">
-        <v>1320.100582534148</v>
+        <v>1320.100582534149</v>
       </c>
       <c r="V46" t="n">
-        <v>1286.51487034775</v>
+        <v>1065.416094328262</v>
       </c>
       <c r="W46" t="n">
-        <v>997.0977003107892</v>
+        <v>775.9989242913009</v>
       </c>
       <c r="X46" t="n">
-        <v>769.1081494127718</v>
+        <v>548.0093733932836</v>
       </c>
       <c r="Y46" t="n">
-        <v>548.3155702692417</v>
+        <v>327.2167942497534</v>
       </c>
     </row>
   </sheetData>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>170.9794606140144</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>220.0452252569063</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>148.3421391932279</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>9.967937521058047</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9242,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>170.9794606140149</v>
       </c>
       <c r="L18" t="n">
-        <v>331.8498482929539</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>152.660613976532</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,13 +9485,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>148.3421391932279</v>
       </c>
       <c r="M21" t="n">
-        <v>118.7395615125294</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>239.6798654165477</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>7.177264930046931</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>7.177264930046221</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>39.80747155040994</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>221.2358239962567</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>282.1447570480287</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>258.0892398948638</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>22.88434839053382</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>72.89368480302949</v>
+        <v>72.89368480302915</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9956,28 +9956,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>261.5786998533645</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>282.1447570480286</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>258.0892398948638</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>39.80747155041007</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>22.88434839053382</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>72.893684803029</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>72.89368480302977</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10190,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>221.2358239962567</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>282.1447570480287</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>258.0892398948639</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>17.17015012962321</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>72.89368480302988</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>7.177264930046249</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,28 +10430,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>28.86409069672845</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>282.1447570480287</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>258.0892398948639</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>39.80747155040979</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>22.88434839053382</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.899014361901209e-12</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,22 +10673,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>212.3901924994367</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>294.757591190839</v>
+        <v>148.3421391932274</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>22.88434839053382</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>188.6850150503356</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>148.3421391932274</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>22.88434839053382</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>148.3421391932279</v>
+        <v>148.3421391932283</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>9.967937521057607</v>
       </c>
       <c r="K45" t="n">
-        <v>170.9794606140142</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>22.88434839053383</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H11" t="n">
-        <v>173.0237790104983</v>
+        <v>126.2581410929044</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T11" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>71.44310047544911</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>71.44310047545002</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.016621412406</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>42.26675230583522</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>182.5229748354963</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>47.24019771780007</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U14" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>50.14070125298476</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>71.44310047544862</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>87.74237066443845</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>25.51131139434497</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>348.1927348904308</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>67.96895394968166</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>287.6179741017173</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>71.44310047544913</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>50.14070125298434</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>87.00170998021049</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3328844140846</v>
+        <v>97.47624745830886</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>333.8984213746364</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>115.2091516674817</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I20" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>50.14070125298477</v>
+        <v>71.44310047544872</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>133.3813615180202</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>210.1796164476973</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24220,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>131.4001005657818</v>
       </c>
       <c r="H23" t="n">
-        <v>151.7467396892991</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>44.63983602332972</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H25" t="n">
         <v>147.485201092913</v>
@@ -24414,25 +24414,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>126.0680064527791</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>159.5056607774302</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24451,19 +24451,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>132.1381362008444</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I26" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24621,7 +24621,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I28" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>174.6379262354094</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>25.51131139434523</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>116.3965421927423</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>356.4530652333035</v>
       </c>
       <c r="G29" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I29" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,19 +24733,19 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T29" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>25.51131139434534</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>34.95994387236053</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24922,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>216.2825060416585</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H32" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I32" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>148.2044150749905</v>
       </c>
     </row>
     <row r="33">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>55.29753545468458</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U34" t="n">
-        <v>78.10482907145217</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>365.7315295099793</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H35" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I35" t="n">
-        <v>67.96895394968166</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,16 +25210,16 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U35" t="n">
-        <v>137.4895466511281</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25247,7 +25247,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>71.44310047544913</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>71.44310047544633</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>178.9970053295571</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>165.8715104503157</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>235.5326023960794</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I38" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>254.6262932935088</v>
       </c>
     </row>
     <row r="39">
@@ -25481,7 +25481,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>71.44310047544913</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>50.1407012529848</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H40" t="n">
-        <v>13.5005084568111</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>105.5870378728063</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S40" t="n">
         <v>195.1205252336517</v>
@@ -25605,16 +25605,16 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>8.867896058094914</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25642,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I41" t="n">
-        <v>67.96895394968166</v>
+        <v>8.820850573247334</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T41" t="n">
-        <v>96.00829272309051</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>50.14070125298476</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>71.44310047544816</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>64.64844634456627</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>105.5870378728063</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S43" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T43" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>175.1932388546705</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.5045864071216</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>245.6801233976657</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>50.14070125298481</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>71.44310047544998</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>19.41154537330266</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.3328844140846</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>102.7394132419461</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S46" t="n">
         <v>195.1205252336517</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>218.8877882592942</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>633970.8194788512</v>
+        <v>633970.8194788513</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>633970.8194788512</v>
+        <v>633970.8194788513</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>633970.8194788512</v>
+        <v>633970.8194788513</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>646017.3395343955</v>
+        <v>646017.3395343954</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>646017.3395343954</v>
+        <v>646017.3395343953</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>633970.8194788515</v>
+        <v>633970.8194788513</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>633970.8194788512</v>
+        <v>633970.8194788513</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>633970.8194788512</v>
+        <v>633970.8194788513</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>633970.8194788512</v>
+        <v>633970.8194788513</v>
       </c>
     </row>
   </sheetData>
@@ -26325,37 +26325,37 @@
         <v>436708.6382972319</v>
       </c>
       <c r="F2" t="n">
-        <v>436708.6382972319</v>
+        <v>436708.6382972322</v>
       </c>
       <c r="G2" t="n">
-        <v>436708.6382972319</v>
+        <v>436708.6382972321</v>
       </c>
       <c r="H2" t="n">
-        <v>436708.6382972318</v>
+        <v>436708.6382972322</v>
       </c>
       <c r="I2" t="n">
-        <v>443027.7805342858</v>
+        <v>443027.7805342857</v>
       </c>
       <c r="J2" t="n">
-        <v>443027.7805342855</v>
+        <v>443027.7805342853</v>
       </c>
       <c r="K2" t="n">
         <v>443027.7805342856</v>
       </c>
       <c r="L2" t="n">
-        <v>443027.7805342857</v>
+        <v>443027.7805342855</v>
       </c>
       <c r="M2" t="n">
-        <v>436708.6382972324</v>
+        <v>436708.6382972322</v>
       </c>
       <c r="N2" t="n">
         <v>436708.638297232</v>
       </c>
       <c r="O2" t="n">
-        <v>436708.638297232</v>
+        <v>436708.6382972321</v>
       </c>
       <c r="P2" t="n">
-        <v>436708.638297232</v>
+        <v>436708.6382972321</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>924651.5793761238</v>
+        <v>924651.579376124</v>
       </c>
       <c r="F3" t="n">
-        <v>1.608323018930336e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4895.439270648232</v>
+        <v>4895.439270648263</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>150597.3382468586</v>
+        <v>150597.3382468589</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,34 +26426,34 @@
         <v>420147.7688895313</v>
       </c>
       <c r="E4" t="n">
-        <v>17063.0927444189</v>
+        <v>17063.09274441891</v>
       </c>
       <c r="F4" t="n">
+        <v>17063.09274441892</v>
+      </c>
+      <c r="G4" t="n">
         <v>17063.09274441891</v>
       </c>
-      <c r="G4" t="n">
-        <v>17063.09274441892</v>
-      </c>
       <c r="H4" t="n">
-        <v>17063.09274441892</v>
+        <v>17063.09274441891</v>
       </c>
       <c r="I4" t="n">
-        <v>20188.99262982723</v>
+        <v>20188.9926298272</v>
       </c>
       <c r="J4" t="n">
-        <v>20188.99262982723</v>
+        <v>20188.99262982721</v>
       </c>
       <c r="K4" t="n">
-        <v>20188.99262982725</v>
+        <v>20188.99262982721</v>
       </c>
       <c r="L4" t="n">
-        <v>20188.99262982725</v>
+        <v>20188.9926298272</v>
       </c>
       <c r="M4" t="n">
-        <v>17063.09274441904</v>
+        <v>17063.09274441891</v>
       </c>
       <c r="N4" t="n">
-        <v>17063.09274441892</v>
+        <v>17063.09274441891</v>
       </c>
       <c r="O4" t="n">
         <v>17063.09274441892</v>
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57906.41050425671</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="F5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425673</v>
       </c>
       <c r="G5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425673</v>
       </c>
       <c r="H5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425673</v>
       </c>
       <c r="I5" t="n">
         <v>59025.70047253834</v>
@@ -26502,16 +26502,16 @@
         <v>59025.70047253834</v>
       </c>
       <c r="M5" t="n">
-        <v>57906.41050425676</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="N5" t="n">
         <v>57906.41050425672</v>
       </c>
       <c r="O5" t="n">
+        <v>57906.41050425674</v>
+      </c>
+      <c r="P5" t="n">
         <v>57906.41050425672</v>
-      </c>
-      <c r="P5" t="n">
-        <v>57906.41050425671</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>140199.9766803214</v>
+        <v>140155.8409016402</v>
       </c>
       <c r="C6" t="n">
-        <v>140199.9766803215</v>
+        <v>140155.8409016404</v>
       </c>
       <c r="D6" t="n">
-        <v>140199.9766803214</v>
+        <v>140155.8409016402</v>
       </c>
       <c r="E6" t="n">
-        <v>-562912.4443275675</v>
+        <v>-568379.5700122013</v>
       </c>
       <c r="F6" t="n">
-        <v>361739.1350485561</v>
+        <v>356272.0093639229</v>
       </c>
       <c r="G6" t="n">
-        <v>361739.1350485563</v>
+        <v>356272.0093639229</v>
       </c>
       <c r="H6" t="n">
-        <v>361739.1350485561</v>
+        <v>356272.0093639229</v>
       </c>
       <c r="I6" t="n">
-        <v>358917.648161272</v>
+        <v>353668.4239330884</v>
       </c>
       <c r="J6" t="n">
-        <v>363813.0874319199</v>
+        <v>358563.8632037363</v>
       </c>
       <c r="K6" t="n">
-        <v>363813.08743192</v>
+        <v>358563.8632037366</v>
       </c>
       <c r="L6" t="n">
-        <v>363813.0874319201</v>
+        <v>358563.8632037365</v>
       </c>
       <c r="M6" t="n">
-        <v>211141.796801698</v>
+        <v>205674.6711170641</v>
       </c>
       <c r="N6" t="n">
-        <v>361739.1350485563</v>
+        <v>356272.0093639228</v>
       </c>
       <c r="O6" t="n">
-        <v>361739.1350485564</v>
+        <v>356272.0093639229</v>
       </c>
       <c r="P6" t="n">
-        <v>361739.1350485564</v>
+        <v>356272.0093639229</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="F3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="G3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="H3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="I3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="J3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="K3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="L3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="M3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="N3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="O3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="P3" t="n">
-        <v>919.4890146074871</v>
+        <v>919.4890146074873</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.7228616087745</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="F4" t="n">
-        <v>622.7228616087747</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="G4" t="n">
-        <v>622.7228616087747</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="H4" t="n">
-        <v>622.7228616087747</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="I4" t="n">
         <v>641.1322360870907</v>
@@ -26816,22 +26816,22 @@
         <v>641.1322360870907</v>
       </c>
       <c r="K4" t="n">
-        <v>641.1322360870909</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="L4" t="n">
-        <v>641.1322360870909</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="M4" t="n">
-        <v>622.7228616087754</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="N4" t="n">
         <v>622.7228616087747</v>
       </c>
       <c r="O4" t="n">
+        <v>622.7228616087749</v>
+      </c>
+      <c r="P4" t="n">
         <v>622.7228616087747</v>
-      </c>
-      <c r="P4" t="n">
-        <v>622.7228616087745</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.7228616087746</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="F4" t="n">
-        <v>5.613183511898869e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.40937447831586</v>
+        <v>18.40937447831598</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.3134871304578</v>
+        <v>604.3134871304587</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>622.7228616087746</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="N4" t="n">
-        <v>5.613183511898869e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I11" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J11" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K11" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L11" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M11" t="n">
-        <v>649.0622128088319</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N11" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O11" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P11" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q11" t="n">
         <v>399.1737460349519</v>
@@ -31794,7 +31794,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H12" t="n">
         <v>19.10108311477063</v>
@@ -31840,19 +31840,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J12" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K12" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L12" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M12" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N12" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O12" t="n">
         <v>470.5615148623808</v>
@@ -31861,16 +31861,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q12" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R12" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S12" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T12" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U12" t="n">
         <v>0.1301163699916256</v>
@@ -31931,7 +31931,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N13" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O13" t="n">
         <v>234.3641835920855</v>
@@ -31943,16 +31943,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R13" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S13" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T13" t="n">
-        <v>7.084587489598669</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,28 +31995,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I14" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J14" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K14" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L14" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M14" t="n">
-        <v>649.0622128088319</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N14" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O14" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P14" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q14" t="n">
         <v>399.1737460349519</v>
@@ -32031,7 +32031,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H15" t="n">
         <v>19.10108311477063</v>
@@ -32077,19 +32077,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J15" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K15" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L15" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M15" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N15" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O15" t="n">
         <v>470.5615148623808</v>
@@ -32098,16 +32098,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q15" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R15" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S15" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T15" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U15" t="n">
         <v>0.1301163699916256</v>
@@ -32168,7 +32168,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N16" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O16" t="n">
         <v>234.3641835920855</v>
@@ -32180,16 +32180,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R16" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S16" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T16" t="n">
-        <v>7.084587489598669</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,28 +32232,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I17" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J17" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K17" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L17" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M17" t="n">
-        <v>649.0622128088319</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N17" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O17" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P17" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q17" t="n">
         <v>399.1737460349519</v>
@@ -32268,7 +32268,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H18" t="n">
         <v>19.10108311477063</v>
@@ -32314,19 +32314,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J18" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K18" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L18" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M18" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N18" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O18" t="n">
         <v>470.5615148623808</v>
@@ -32335,16 +32335,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q18" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R18" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S18" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T18" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U18" t="n">
         <v>0.1301163699916256</v>
@@ -32405,7 +32405,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N19" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O19" t="n">
         <v>234.3641835920855</v>
@@ -32417,16 +32417,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R19" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S19" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T19" t="n">
-        <v>7.084587489598669</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,28 +32469,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I20" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J20" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K20" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L20" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M20" t="n">
-        <v>649.0622128088319</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N20" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O20" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P20" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q20" t="n">
         <v>399.1737460349519</v>
@@ -32505,7 +32505,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H21" t="n">
         <v>19.10108311477063</v>
@@ -32551,19 +32551,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J21" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K21" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L21" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M21" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N21" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O21" t="n">
         <v>470.5615148623808</v>
@@ -32572,16 +32572,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q21" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R21" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S21" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T21" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U21" t="n">
         <v>0.1301163699916256</v>
@@ -32642,7 +32642,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N22" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O22" t="n">
         <v>234.3641835920855</v>
@@ -32654,16 +32654,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R22" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S22" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T22" t="n">
-        <v>7.084587489598669</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,28 +32706,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I23" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J23" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K23" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L23" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M23" t="n">
-        <v>649.0622128088319</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N23" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O23" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P23" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q23" t="n">
         <v>399.1737460349519</v>
@@ -32742,7 +32742,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H24" t="n">
         <v>19.10108311477063</v>
@@ -32788,19 +32788,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J24" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K24" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L24" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M24" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N24" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O24" t="n">
         <v>470.5615148623808</v>
@@ -32809,16 +32809,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q24" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R24" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S24" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T24" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U24" t="n">
         <v>0.1301163699916256</v>
@@ -32879,7 +32879,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N25" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O25" t="n">
         <v>234.3641835920855</v>
@@ -32891,16 +32891,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R25" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S25" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T25" t="n">
-        <v>7.084587489598669</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,28 +32943,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I26" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J26" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K26" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L26" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M26" t="n">
-        <v>649.0622128088319</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N26" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O26" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P26" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q26" t="n">
         <v>399.1737460349519</v>
@@ -32979,7 +32979,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H27" t="n">
         <v>19.10108311477063</v>
@@ -33025,19 +33025,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J27" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K27" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L27" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M27" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N27" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O27" t="n">
         <v>470.5615148623808</v>
@@ -33046,16 +33046,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q27" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R27" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S27" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T27" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U27" t="n">
         <v>0.1301163699916256</v>
@@ -33116,7 +33116,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N28" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O28" t="n">
         <v>234.3641835920855</v>
@@ -33128,16 +33128,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R28" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S28" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T28" t="n">
-        <v>7.084587489598669</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,28 +33180,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I29" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J29" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K29" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L29" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M29" t="n">
-        <v>649.0622128088319</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N29" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O29" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P29" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q29" t="n">
         <v>399.1737460349519</v>
@@ -33216,7 +33216,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H30" t="n">
         <v>19.10108311477063</v>
@@ -33262,19 +33262,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J30" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K30" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L30" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M30" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N30" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O30" t="n">
         <v>470.5615148623808</v>
@@ -33283,16 +33283,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q30" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R30" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S30" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T30" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U30" t="n">
         <v>0.1301163699916256</v>
@@ -33353,7 +33353,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N31" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O31" t="n">
         <v>234.3641835920855</v>
@@ -33365,16 +33365,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R31" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S31" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T31" t="n">
-        <v>7.084587489598669</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,28 +33417,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I32" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J32" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K32" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L32" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M32" t="n">
-        <v>649.0622128088319</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N32" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O32" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P32" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q32" t="n">
         <v>399.1737460349519</v>
@@ -33453,7 +33453,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H33" t="n">
         <v>19.10108311477063</v>
@@ -33499,19 +33499,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J33" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K33" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L33" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M33" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N33" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O33" t="n">
         <v>470.5615148623808</v>
@@ -33520,16 +33520,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q33" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R33" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S33" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T33" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U33" t="n">
         <v>0.1301163699916256</v>
@@ -33590,7 +33590,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N34" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O34" t="n">
         <v>234.3641835920855</v>
@@ -33602,16 +33602,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R34" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S34" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T34" t="n">
-        <v>7.084587489598669</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,28 +33654,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I35" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J35" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K35" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L35" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M35" t="n">
-        <v>649.0622128088319</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N35" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O35" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P35" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q35" t="n">
         <v>399.1737460349519</v>
@@ -33690,7 +33690,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H36" t="n">
         <v>19.10108311477063</v>
@@ -33736,19 +33736,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J36" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K36" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L36" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M36" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N36" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O36" t="n">
         <v>470.5615148623808</v>
@@ -33757,16 +33757,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q36" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R36" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S36" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T36" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U36" t="n">
         <v>0.1301163699916256</v>
@@ -33827,7 +33827,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N37" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O37" t="n">
         <v>234.3641835920855</v>
@@ -33839,16 +33839,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R37" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S37" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T37" t="n">
-        <v>7.084587489598669</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,28 +33891,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I38" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J38" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K38" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L38" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M38" t="n">
-        <v>649.0622128088319</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N38" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O38" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P38" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q38" t="n">
         <v>399.1737460349519</v>
@@ -33927,7 +33927,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H39" t="n">
         <v>19.10108311477063</v>
@@ -33973,19 +33973,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J39" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K39" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L39" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M39" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N39" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O39" t="n">
         <v>470.5615148623808</v>
@@ -33994,16 +33994,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q39" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R39" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S39" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T39" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U39" t="n">
         <v>0.1301163699916256</v>
@@ -34064,7 +34064,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N40" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O40" t="n">
         <v>234.3641835920855</v>
@@ -34076,16 +34076,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R40" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S40" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T40" t="n">
-        <v>7.084587489598669</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,28 +34128,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I41" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J41" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K41" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L41" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M41" t="n">
-        <v>649.0622128088319</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N41" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O41" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P41" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q41" t="n">
         <v>399.1737460349519</v>
@@ -34164,7 +34164,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H42" t="n">
         <v>19.10108311477063</v>
@@ -34210,19 +34210,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J42" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K42" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L42" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M42" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N42" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O42" t="n">
         <v>470.5615148623808</v>
@@ -34231,16 +34231,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q42" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R42" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S42" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T42" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U42" t="n">
         <v>0.1301163699916256</v>
@@ -34301,7 +34301,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N43" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O43" t="n">
         <v>234.3641835920855</v>
@@ -34313,16 +34313,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R43" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S43" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T43" t="n">
-        <v>7.084587489598669</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H44" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I44" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J44" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K44" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L44" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M44" t="n">
-        <v>649.0622128088318</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N44" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O44" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P44" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q44" t="n">
-        <v>399.1737460349518</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R44" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S44" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T44" t="n">
         <v>16.18115843796693</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H45" t="n">
         <v>19.10108311477063</v>
       </c>
       <c r="I45" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J45" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K45" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L45" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M45" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N45" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O45" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P45" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q45" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R45" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S45" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T45" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U45" t="n">
         <v>0.1301163699916256</v>
@@ -34538,7 +34538,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N46" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O46" t="n">
         <v>234.3641835920855</v>
@@ -34547,19 +34547,19 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R46" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S46" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T46" t="n">
-        <v>7.084587489598668</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K11" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L11" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M11" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N11" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O11" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P11" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q11" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R11" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.01815506597373</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K12" t="n">
-        <v>445.9900909703315</v>
+        <v>352.5043145717674</v>
       </c>
       <c r="L12" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M12" t="n">
-        <v>358.9874790390621</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N12" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O12" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P12" t="n">
-        <v>463.7379189556023</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q12" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R12" t="n">
-        <v>22.637321420787</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K13" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L13" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M13" t="n">
         <v>299.4977962876914</v>
@@ -35582,13 +35582,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O13" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P13" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K14" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L14" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M14" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N14" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O14" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P14" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q14" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R14" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.01815506597373</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K15" t="n">
-        <v>445.9900909703315</v>
+        <v>329.8669931509808</v>
       </c>
       <c r="L15" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M15" t="n">
-        <v>358.9874790390621</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N15" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O15" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P15" t="n">
-        <v>253.6606312197541</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q15" t="n">
-        <v>322.5559691322456</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R15" t="n">
-        <v>22.637321420787</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K16" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L16" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M16" t="n">
         <v>299.4977962876914</v>
@@ -35819,13 +35819,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O16" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P16" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>132.684671366951</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K17" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L17" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M17" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N17" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O17" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P17" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R17" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.01815506597373</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K18" t="n">
-        <v>181.5248539577529</v>
+        <v>352.5043145717678</v>
       </c>
       <c r="L18" t="n">
-        <v>622.7228616087747</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M18" t="n">
-        <v>511.6480930155941</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N18" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O18" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P18" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q18" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R18" t="n">
-        <v>22.637321420787</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K19" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L19" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M19" t="n">
         <v>299.4977962876914</v>
@@ -36056,13 +36056,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O19" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P19" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K20" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L20" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M20" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N20" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O20" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P20" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q20" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R20" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722513</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K21" t="n">
-        <v>181.5248539577529</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L21" t="n">
-        <v>290.8730133158207</v>
+        <v>439.2151525090487</v>
       </c>
       <c r="M21" t="n">
-        <v>477.7270405515915</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N21" t="n">
-        <v>622.7228616087747</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O21" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P21" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q21" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R21" t="n">
-        <v>22.637321420787</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K22" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L22" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M22" t="n">
         <v>299.4977962876914</v>
@@ -36293,13 +36293,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O22" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P22" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K23" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L23" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M23" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3289193191866</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O23" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P23" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q23" t="n">
-        <v>176.8680561605024</v>
+        <v>184.0453210905487</v>
       </c>
       <c r="R23" t="n">
-        <v>82.3272712602074</v>
+        <v>82.32727126020743</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>99.82562661638367</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K24" t="n">
-        <v>181.5248539577529</v>
+        <v>402.7606779540096</v>
       </c>
       <c r="L24" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M24" t="n">
-        <v>641.1322360870907</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N24" t="n">
-        <v>641.1322360870907</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O24" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P24" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q24" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K25" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L25" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M25" t="n">
         <v>299.4977962876914</v>
@@ -36530,13 +36530,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O25" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P25" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q25" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K26" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L26" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M26" t="n">
-        <v>491.6096643845887</v>
+        <v>491.6096643845884</v>
       </c>
       <c r="N26" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O26" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P26" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q26" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R26" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.01815506597373</v>
+        <v>60.01815506597376</v>
       </c>
       <c r="K27" t="n">
-        <v>181.5248539577529</v>
+        <v>443.1035538111175</v>
       </c>
       <c r="L27" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M27" t="n">
-        <v>641.1322360870907</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N27" t="n">
-        <v>641.1322360870907</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O27" t="n">
-        <v>367.7727419683464</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P27" t="n">
-        <v>243.692693698696</v>
+        <v>562.1554623386332</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.4786813963965</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K28" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L28" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M28" t="n">
         <v>299.4977962876914</v>
@@ -36767,13 +36767,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O28" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P28" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q28" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>132.6846713669508</v>
+        <v>205.5783561699799</v>
       </c>
       <c r="K29" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L29" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M29" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N29" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O29" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P29" t="n">
-        <v>373.2131298993177</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q29" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R29" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.01815506597373</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K30" t="n">
-        <v>181.5248539577529</v>
+        <v>402.7606779540096</v>
       </c>
       <c r="L30" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M30" t="n">
-        <v>641.1322360870909</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N30" t="n">
-        <v>641.1322360870909</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O30" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P30" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q30" t="n">
-        <v>129.6488315260197</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R30" t="n">
-        <v>22.637321420787</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K31" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L31" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M31" t="n">
         <v>299.4977962876914</v>
@@ -37004,13 +37004,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O31" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P31" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q31" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K32" t="n">
-        <v>323.0046407605706</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L32" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M32" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N32" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O32" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P32" t="n">
-        <v>300.3194450962879</v>
+        <v>307.4967100263343</v>
       </c>
       <c r="Q32" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R32" t="n">
-        <v>16.61085138722495</v>
+        <v>82.32727126020743</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.01815506597373</v>
+        <v>60.01815506597376</v>
       </c>
       <c r="K33" t="n">
-        <v>181.5248539577529</v>
+        <v>210.3889446544814</v>
       </c>
       <c r="L33" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M33" t="n">
-        <v>641.1322360870909</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N33" t="n">
-        <v>641.1322360870909</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O33" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P33" t="n">
-        <v>243.692693698696</v>
+        <v>562.1554623386332</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.2861529468063</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K34" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L34" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M34" t="n">
         <v>299.4977962876914</v>
@@ -37241,13 +37241,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O34" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P34" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q34" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>132.6846713669537</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K35" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L35" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M35" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N35" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O35" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P35" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q35" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R35" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.01815506597373</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K36" t="n">
-        <v>181.5248539577529</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L36" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M36" t="n">
-        <v>571.3776715384988</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N36" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O36" t="n">
-        <v>622.7228616087754</v>
+        <v>476.3074096111638</v>
       </c>
       <c r="P36" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q36" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K37" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L37" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M37" t="n">
         <v>299.4977962876914</v>
@@ -37478,13 +37478,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O37" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P37" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q37" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>132.684671366951</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K38" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L38" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M38" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N38" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O38" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P38" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q38" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R38" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722467</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.01815506597373</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K39" t="n">
-        <v>181.5248539577529</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L39" t="n">
-        <v>479.5580283661563</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M39" t="n">
-        <v>358.9874790390621</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N39" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O39" t="n">
-        <v>327.9652704179363</v>
+        <v>476.3074096111638</v>
       </c>
       <c r="P39" t="n">
-        <v>562.1554623386332</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K40" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L40" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M40" t="n">
         <v>299.4977962876914</v>
@@ -37715,13 +37715,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O40" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P40" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q40" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K41" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L41" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M41" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N41" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O41" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P41" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q41" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R41" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K42" t="n">
-        <v>329.8669931509808</v>
+        <v>329.8669931509812</v>
       </c>
       <c r="L42" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M42" t="n">
-        <v>358.9874790390621</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N42" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O42" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P42" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q42" t="n">
-        <v>322.5559691322456</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R42" t="n">
-        <v>22.637321420787</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K43" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L43" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M43" t="n">
         <v>299.4977962876914</v>
@@ -37952,13 +37952,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O43" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P43" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K44" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L44" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M44" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N44" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O44" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P44" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R44" t="n">
-        <v>16.61085138722493</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>186.1091904063825</v>
+        <v>69.98609258703137</v>
       </c>
       <c r="K45" t="n">
-        <v>352.504314571767</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L45" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M45" t="n">
-        <v>358.9874790390621</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N45" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O45" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P45" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q45" t="n">
-        <v>322.5559691322455</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K46" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L46" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M46" t="n">
         <v>299.4977962876914</v>
@@ -38189,13 +38189,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O46" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P46" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q46" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_14_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_14_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1735239.926963411</v>
+        <v>1762705.270928413</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6486630.972584563</v>
+        <v>6486630.972584562</v>
       </c>
     </row>
     <row r="9">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>175.3605127983445</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T11" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>298.7219082147867</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H12" t="n">
-        <v>21.69126064627671</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I12" t="n">
         <v>21.30239922246436</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216741982</v>
       </c>
       <c r="T12" t="n">
         <v>192.192932426668</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H13" t="n">
-        <v>147.485201092913</v>
+        <v>80.71731216046773</v>
       </c>
       <c r="I13" t="n">
-        <v>63.32028556697113</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>364.3661015476566</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>223.2411024647498</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H15" t="n">
-        <v>93.13436112172583</v>
+        <v>21.69126064627714</v>
       </c>
       <c r="I15" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T15" t="n">
-        <v>120.7498319512194</v>
+        <v>192.192932426668</v>
       </c>
       <c r="U15" t="n">
         <v>225.8112657109832</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>48.43196139624804</v>
       </c>
       <c r="C16" t="n">
-        <v>79.50445043418938</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U16" t="n">
         <v>286.2285878140705</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H17" t="n">
-        <v>301.6186538912489</v>
+        <v>241.9205904243668</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V17" t="n">
-        <v>40.13428436841756</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216741982</v>
       </c>
       <c r="T18" t="n">
-        <v>142.0522311736837</v>
+        <v>192.192932426668</v>
       </c>
       <c r="U18" t="n">
         <v>225.8112657109832</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>99.44452647539244</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>68.85663695577573</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S19" t="n">
         <v>195.1205252336517</v>
@@ -2058,16 +2058,16 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2083,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>63.70389342051996</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>296.397147597975</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I20" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2174,7 +2174,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>63.92264786388922</v>
+        <v>135.3657483393379</v>
       </c>
       <c r="H21" t="n">
         <v>93.13436112172583</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216742073</v>
       </c>
       <c r="T21" t="n">
         <v>192.192932426668</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>70.55044054582729</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>147.485201092913</v>
       </c>
       <c r="I22" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>15.53003894133983</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>280.2061986996749</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>166.4513356218212</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>220.8610019386828</v>
+        <v>147.0447644239135</v>
       </c>
       <c r="U25" t="n">
         <v>286.2285878140705</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>92.51664689931567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>223.2281808860504</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>184.7592641752435</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T26" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>160.4549918838113</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>46.22307570327339</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U28" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>99.29892967442034</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>50.42298050840792</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>411.6062992654567</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T29" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>49.92864252140624</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S31" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T31" t="n">
-        <v>185.9010580663223</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>67.96895394968163</v>
+        <v>13.85767899191092</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>238.0335235810631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>98.85171724102184</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>111.0353489594</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3268,19 +3268,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>16.19884056228242</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>77.54728525389923</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3359,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>63.9226478638888</v>
+        <v>135.3657483393379</v>
       </c>
       <c r="H36" t="n">
-        <v>93.13436112172583</v>
+        <v>42.99365986874107</v>
       </c>
       <c r="I36" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.8349748523802202</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U37" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>77.22810184760107</v>
       </c>
     </row>
     <row r="38">
@@ -3508,13 +3508,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.6062992654567</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>124.7874829717001</v>
+        <v>95.00823514637243</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>131.6116453625448</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3593,7 +3593,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>73.62611191793475</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>135.3657483393379</v>
@@ -3602,7 +3602,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I39" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>134.9469826428689</v>
+        <v>84.80628138988411</v>
       </c>
       <c r="T39" t="n">
         <v>192.192932426668</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>53.763973729158</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3606917559756</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3745,22 +3745,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>59.1481033764343</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>309.4862218447709</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3836,10 +3836,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H42" t="n">
-        <v>93.13436112172583</v>
+        <v>42.99365986874107</v>
       </c>
       <c r="I42" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T42" t="n">
-        <v>120.7498319512199</v>
+        <v>192.192932426668</v>
       </c>
       <c r="U42" t="n">
         <v>225.8112657109832</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>115.183533837371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>52.29053123761575</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H43" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>163.4195182447917</v>
       </c>
       <c r="E44" t="n">
-        <v>136.2502466745961</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>411.6062992654567</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>116.3924823968825</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4076,7 +4076,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216741892</v>
       </c>
       <c r="T45" t="n">
         <v>192.192932426668</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>129.2039276449097</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>2.995488117408881</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>971.0036112431355</v>
+        <v>1467.499604034966</v>
       </c>
       <c r="C11" t="n">
-        <v>971.0036112431355</v>
+        <v>1098.537087094554</v>
       </c>
       <c r="D11" t="n">
-        <v>612.7379126363851</v>
+        <v>740.2713884878037</v>
       </c>
       <c r="E11" t="n">
-        <v>226.9496600381408</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="F11" t="n">
-        <v>226.9496600381408</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="G11" t="n">
-        <v>226.9496600381408</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H11" t="n">
         <v>49.81782892870198</v>
@@ -5047,16 +5047,16 @@
         <v>428.7854999799487</v>
       </c>
       <c r="L11" t="n">
-        <v>772.8691714549145</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M11" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N11" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O11" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P11" t="n">
         <v>2299.347327962849</v>
@@ -5068,25 +5068,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S11" t="n">
-        <v>2490.891446435099</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T11" t="n">
-        <v>2281.886707923822</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="U11" t="n">
-        <v>2028.3009121179</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="V11" t="n">
-        <v>1697.238024774329</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="W11" t="n">
-        <v>1344.469369504215</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="X11" t="n">
-        <v>971.0036112431355</v>
+        <v>1854.099444099088</v>
       </c>
       <c r="Y11" t="n">
-        <v>971.0036112431355</v>
+        <v>1854.099444099088</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>859.1382992416497</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C12" t="n">
-        <v>684.6852699605228</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D12" t="n">
-        <v>535.7508602992715</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E12" t="n">
-        <v>376.513405293816</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F12" t="n">
-        <v>229.978847320701</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G12" t="n">
-        <v>93.24576819005659</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H12" t="n">
         <v>71.3354039008882</v>
@@ -5123,49 +5123,49 @@
         <v>234.0659274310207</v>
       </c>
       <c r="K12" t="n">
-        <v>583.0451988570704</v>
+        <v>413.7755328491961</v>
       </c>
       <c r="L12" t="n">
-        <v>871.009482039733</v>
+        <v>701.7398160318586</v>
       </c>
       <c r="M12" t="n">
-        <v>1226.407086288405</v>
+        <v>1057.13742028053</v>
       </c>
       <c r="N12" t="n">
-        <v>1605.619652518709</v>
+        <v>1583.20870431213</v>
       </c>
       <c r="O12" t="n">
-        <v>1930.305270232466</v>
+        <v>1907.894322025887</v>
       </c>
       <c r="P12" t="n">
-        <v>2171.561036994176</v>
+        <v>2149.150088787596</v>
       </c>
       <c r="Q12" t="n">
-        <v>2490.891446435099</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R12" t="n">
         <v>2490.891446435099</v>
       </c>
       <c r="S12" t="n">
-        <v>2354.581362957453</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T12" t="n">
-        <v>2160.447087779</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U12" t="n">
-        <v>1932.354900192149</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V12" t="n">
-        <v>1697.202791960406</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W12" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X12" t="n">
-        <v>1235.113935026672</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y12" t="n">
-        <v>1027.353636261718</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>579.6019404489859</v>
+        <v>552.9070031411161</v>
       </c>
       <c r="C13" t="n">
-        <v>410.6657575210791</v>
+        <v>552.9070031411161</v>
       </c>
       <c r="D13" t="n">
-        <v>410.6657575210791</v>
+        <v>552.9070031411161</v>
       </c>
       <c r="E13" t="n">
-        <v>262.7526639386859</v>
+        <v>552.9070031411161</v>
       </c>
       <c r="F13" t="n">
-        <v>262.7526639386859</v>
+        <v>406.0170556432057</v>
       </c>
       <c r="G13" t="n">
-        <v>262.7526639386859</v>
+        <v>238.0040410835243</v>
       </c>
       <c r="H13" t="n">
-        <v>113.7777133397839</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I13" t="n">
         <v>49.81782892870198</v>
       </c>
       <c r="J13" t="n">
-        <v>73.44728005477631</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K13" t="n">
         <v>242.1145636490678</v>
       </c>
       <c r="L13" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M13" t="n">
-        <v>809.9798694642501</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N13" t="n">
         <v>1104.867129907538</v>
@@ -5220,31 +5220,31 @@
         <v>1557.066378230431</v>
       </c>
       <c r="Q13" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R13" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S13" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="T13" t="n">
         <v>1386.128447054742</v>
       </c>
       <c r="U13" t="n">
-        <v>1097.008661383964</v>
+        <v>1097.008661383963</v>
       </c>
       <c r="V13" t="n">
-        <v>1097.008661383964</v>
+        <v>842.3241731780766</v>
       </c>
       <c r="W13" t="n">
-        <v>807.5914913470033</v>
+        <v>552.9070031411161</v>
       </c>
       <c r="X13" t="n">
-        <v>579.6019404489859</v>
+        <v>552.9070031411161</v>
       </c>
       <c r="Y13" t="n">
-        <v>579.6019404489859</v>
+        <v>552.9070031411161</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1214.638553536409</v>
+        <v>1181.232979331143</v>
       </c>
       <c r="C14" t="n">
-        <v>1214.638553536409</v>
+        <v>1181.232979331143</v>
       </c>
       <c r="D14" t="n">
-        <v>1214.638553536409</v>
+        <v>1181.232979331143</v>
       </c>
       <c r="E14" t="n">
-        <v>828.8503009381648</v>
+        <v>1181.232979331143</v>
       </c>
       <c r="F14" t="n">
-        <v>417.8643961485572</v>
+        <v>770.247074541536</v>
       </c>
       <c r="G14" t="n">
-        <v>49.81782892870199</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H14" t="n">
         <v>49.81782892870199</v>
@@ -5278,19 +5278,19 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J14" t="n">
-        <v>181.1756535819832</v>
+        <v>181.1756535819841</v>
       </c>
       <c r="K14" t="n">
-        <v>428.7854999799483</v>
+        <v>428.7854999799492</v>
       </c>
       <c r="L14" t="n">
-        <v>772.8691714549145</v>
+        <v>772.8691714549157</v>
       </c>
       <c r="M14" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N14" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O14" t="n">
         <v>2002.031077317524</v>
@@ -5311,19 +5311,19 @@
         <v>2364.843483837422</v>
       </c>
       <c r="U14" t="n">
-        <v>2364.843483837422</v>
+        <v>2111.257688031501</v>
       </c>
       <c r="V14" t="n">
-        <v>2364.843483837422</v>
+        <v>1780.19480068793</v>
       </c>
       <c r="W14" t="n">
-        <v>2364.843483837422</v>
+        <v>1554.698737592223</v>
       </c>
       <c r="X14" t="n">
-        <v>1991.377725576343</v>
+        <v>1181.232979331143</v>
       </c>
       <c r="Y14" t="n">
-        <v>1601.238393600531</v>
+        <v>1181.232979331143</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416502</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605232</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992719</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6781532488152</v>
+        <v>376.5134052938164</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1435952757001</v>
+        <v>229.9788473207014</v>
       </c>
       <c r="G15" t="n">
-        <v>165.4105161450557</v>
+        <v>93.24576819005705</v>
       </c>
       <c r="H15" t="n">
-        <v>71.33540390088821</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I15" t="n">
         <v>49.81782892870199</v>
@@ -5360,10 +5360,10 @@
         <v>234.0659274310207</v>
       </c>
       <c r="K15" t="n">
-        <v>560.6342506504917</v>
+        <v>560.6342506504922</v>
       </c>
       <c r="L15" t="n">
-        <v>848.5985338331543</v>
+        <v>848.5985338331546</v>
       </c>
       <c r="M15" t="n">
         <v>1203.996138081826</v>
@@ -5387,22 +5387,22 @@
         <v>2354.581362957454</v>
       </c>
       <c r="T15" t="n">
-        <v>2232.611835734</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.1253546198024</v>
+        <v>344.6208700090054</v>
       </c>
       <c r="C16" t="n">
-        <v>49.81782892870199</v>
+        <v>344.6208700090054</v>
       </c>
       <c r="D16" t="n">
-        <v>49.81782892870199</v>
+        <v>344.6208700090054</v>
       </c>
       <c r="E16" t="n">
-        <v>49.81782892870199</v>
+        <v>196.7077764266123</v>
       </c>
       <c r="F16" t="n">
         <v>49.81782892870199</v>
@@ -5436,16 +5436,16 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J16" t="n">
-        <v>73.44728005477631</v>
+        <v>73.44728005477629</v>
       </c>
       <c r="K16" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490677</v>
       </c>
       <c r="L16" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394354</v>
       </c>
       <c r="M16" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642498</v>
       </c>
       <c r="N16" t="n">
         <v>1104.867129907538</v>
@@ -5454,34 +5454,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P16" t="n">
-        <v>1557.066378230431</v>
+        <v>1557.06637823043</v>
       </c>
       <c r="Q16" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R16" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S16" t="n">
-        <v>1412.128928574975</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="T16" t="n">
-        <v>1412.128928574975</v>
+        <v>1386.128447054741</v>
       </c>
       <c r="U16" t="n">
-        <v>1123.009142904197</v>
+        <v>1097.008661383963</v>
       </c>
       <c r="V16" t="n">
-        <v>868.3246546983104</v>
+        <v>842.3241731780762</v>
       </c>
       <c r="W16" t="n">
-        <v>578.9074846613498</v>
+        <v>842.3241731780762</v>
       </c>
       <c r="X16" t="n">
-        <v>350.9179337633325</v>
+        <v>614.3346222800589</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.1253546198024</v>
+        <v>393.5420431365287</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1128.512773148286</v>
+        <v>1120.931905122172</v>
       </c>
       <c r="C17" t="n">
-        <v>1128.512773148286</v>
+        <v>1120.931905122172</v>
       </c>
       <c r="D17" t="n">
-        <v>770.247074541536</v>
+        <v>1120.931905122172</v>
       </c>
       <c r="E17" t="n">
-        <v>770.247074541536</v>
+        <v>1120.931905122172</v>
       </c>
       <c r="F17" t="n">
-        <v>770.247074541536</v>
+        <v>709.9460003325642</v>
       </c>
       <c r="G17" t="n">
-        <v>354.4831358895594</v>
+        <v>294.1820616805877</v>
       </c>
       <c r="H17" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I17" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J17" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K17" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L17" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M17" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N17" t="n">
         <v>1613.248129085907</v>
@@ -5545,22 +5545,22 @@
         <v>2490.891446435099</v>
       </c>
       <c r="T17" t="n">
-        <v>2281.886707923822</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="U17" t="n">
-        <v>2281.886707923822</v>
+        <v>2237.305650629177</v>
       </c>
       <c r="V17" t="n">
-        <v>2241.347026743602</v>
+        <v>2237.305650629177</v>
       </c>
       <c r="W17" t="n">
-        <v>1888.578371473488</v>
+        <v>1884.536995359063</v>
       </c>
       <c r="X17" t="n">
-        <v>1515.112613212408</v>
+        <v>1511.071237097983</v>
       </c>
       <c r="Y17" t="n">
-        <v>1515.112613212408</v>
+        <v>1120.931905122172</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>909.7854722244628</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C18" t="n">
-        <v>735.3324429433358</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D18" t="n">
-        <v>586.3980332820845</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E18" t="n">
-        <v>427.1605782766289</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F18" t="n">
-        <v>280.6260203035139</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G18" t="n">
-        <v>143.8929411728695</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H18" t="n">
-        <v>49.81782892870199</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I18" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J18" t="n">
         <v>234.0659274310207</v>
       </c>
       <c r="K18" t="n">
-        <v>583.0451988570709</v>
+        <v>675.5961174916489</v>
       </c>
       <c r="L18" t="n">
-        <v>871.0094820397335</v>
+        <v>963.5604006743115</v>
       </c>
       <c r="M18" t="n">
-        <v>1226.407086288405</v>
+        <v>1318.958004922983</v>
       </c>
       <c r="N18" t="n">
-        <v>1605.61965251871</v>
+        <v>1698.170571153288</v>
       </c>
       <c r="O18" t="n">
-        <v>1930.305270232467</v>
+        <v>2022.856188867045</v>
       </c>
       <c r="P18" t="n">
-        <v>2171.561036994176</v>
+        <v>2264.111955628754</v>
       </c>
       <c r="Q18" t="n">
-        <v>2490.891446435099</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R18" t="n">
         <v>2490.891446435099</v>
       </c>
       <c r="S18" t="n">
-        <v>2354.581362957454</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T18" t="n">
-        <v>2211.094260761814</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U18" t="n">
-        <v>1983.002073174962</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V18" t="n">
-        <v>1747.849964943219</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W18" t="n">
-        <v>1493.612608215017</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X18" t="n">
-        <v>1285.761108009485</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y18" t="n">
-        <v>1078.000809244531</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>269.4866268822253</v>
+        <v>575.050073151425</v>
       </c>
       <c r="C19" t="n">
-        <v>269.4866268822253</v>
+        <v>474.6010565096144</v>
       </c>
       <c r="D19" t="n">
-        <v>119.3699874698896</v>
+        <v>324.4844170972787</v>
       </c>
       <c r="E19" t="n">
-        <v>119.3699874698896</v>
+        <v>324.4844170972787</v>
       </c>
       <c r="F19" t="n">
-        <v>119.3699874698896</v>
+        <v>324.4844170972787</v>
       </c>
       <c r="G19" t="n">
-        <v>49.81782892870199</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="H19" t="n">
-        <v>49.81782892870199</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I19" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J19" t="n">
-        <v>73.44728005477631</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K19" t="n">
         <v>242.1145636490678</v>
       </c>
       <c r="L19" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M19" t="n">
-        <v>809.9798694642501</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N19" t="n">
         <v>1104.867129907538</v>
@@ -5694,31 +5694,31 @@
         <v>1557.066378230431</v>
       </c>
       <c r="Q19" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R19" t="n">
-        <v>1609.220368204927</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S19" t="n">
-        <v>1412.128928574975</v>
+        <v>1308.3517434821</v>
       </c>
       <c r="T19" t="n">
-        <v>1189.037007424791</v>
+        <v>1085.259822331916</v>
       </c>
       <c r="U19" t="n">
-        <v>899.9172217540125</v>
+        <v>1085.259822331916</v>
       </c>
       <c r="V19" t="n">
-        <v>899.9172217540125</v>
+        <v>1085.259822331916</v>
       </c>
       <c r="W19" t="n">
-        <v>899.9172217540125</v>
+        <v>795.8426522949551</v>
       </c>
       <c r="X19" t="n">
-        <v>671.9276708559952</v>
+        <v>795.8426522949551</v>
       </c>
       <c r="Y19" t="n">
-        <v>451.1350917124651</v>
+        <v>575.050073151425</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1214.638553536409</v>
+        <v>1162.884454185988</v>
       </c>
       <c r="C20" t="n">
-        <v>1214.638553536409</v>
+        <v>1098.537087094554</v>
       </c>
       <c r="D20" t="n">
-        <v>1214.638553536409</v>
+        <v>740.2713884878037</v>
       </c>
       <c r="E20" t="n">
-        <v>828.8503009381648</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="F20" t="n">
-        <v>417.8643961485572</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="G20" t="n">
-        <v>118.4733379687844</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H20" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I20" t="n">
         <v>49.81782892870199</v>
@@ -5755,49 +5755,49 @@
         <v>181.1756535819833</v>
       </c>
       <c r="K20" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799486</v>
       </c>
       <c r="L20" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M20" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N20" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085906</v>
       </c>
       <c r="O20" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P20" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.347327962848</v>
       </c>
       <c r="Q20" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561745</v>
       </c>
       <c r="R20" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S20" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T20" t="n">
-        <v>2364.843483837422</v>
+        <v>2155.838745326146</v>
       </c>
       <c r="U20" t="n">
-        <v>2364.843483837422</v>
+        <v>1902.252949520224</v>
       </c>
       <c r="V20" t="n">
-        <v>2364.843483837422</v>
+        <v>1902.252949520224</v>
       </c>
       <c r="W20" t="n">
-        <v>2364.843483837422</v>
+        <v>1549.48429425011</v>
       </c>
       <c r="X20" t="n">
-        <v>1991.377725576343</v>
+        <v>1549.48429425011</v>
       </c>
       <c r="Y20" t="n">
-        <v>1601.238393600531</v>
+        <v>1549.48429425011</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>859.1382992416502</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C21" t="n">
-        <v>684.6852699605232</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D21" t="n">
-        <v>535.7508602992719</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E21" t="n">
-        <v>376.5134052938164</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F21" t="n">
-        <v>229.9788473207014</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G21" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H21" t="n">
-        <v>71.33540390088821</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I21" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J21" t="n">
-        <v>234.0659274310207</v>
+        <v>109.235802444016</v>
       </c>
       <c r="K21" t="n">
-        <v>413.7755328491961</v>
+        <v>475.7435727620245</v>
       </c>
       <c r="L21" t="n">
-        <v>848.5985338331543</v>
+        <v>763.707855944687</v>
       </c>
       <c r="M21" t="n">
-        <v>1203.996138081826</v>
+        <v>1119.105460193359</v>
       </c>
       <c r="N21" t="n">
-        <v>1583.208704312131</v>
+        <v>1498.318026423663</v>
       </c>
       <c r="O21" t="n">
-        <v>1907.894322025888</v>
+        <v>1823.00364413742</v>
       </c>
       <c r="P21" t="n">
-        <v>2149.150088787597</v>
+        <v>2379.537551852667</v>
       </c>
       <c r="Q21" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R21" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S21" t="n">
-        <v>2354.581362957454</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T21" t="n">
-        <v>2160.447087779001</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U21" t="n">
-        <v>1932.354900192149</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V21" t="n">
-        <v>1697.202791960407</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W21" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X21" t="n">
-        <v>1235.113935026672</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y21" t="n">
-        <v>1027.353636261718</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1087.315231116727</v>
+        <v>416.9457982839258</v>
       </c>
       <c r="C22" t="n">
-        <v>918.37904818882</v>
+        <v>345.6827270255144</v>
       </c>
       <c r="D22" t="n">
-        <v>768.2624087764842</v>
+        <v>345.6827270255144</v>
       </c>
       <c r="E22" t="n">
-        <v>620.3493151940911</v>
+        <v>345.6827270255144</v>
       </c>
       <c r="F22" t="n">
-        <v>473.4593676961807</v>
+        <v>198.792779527604</v>
       </c>
       <c r="G22" t="n">
-        <v>305.4463531364993</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H22" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I22" t="n">
         <v>49.81782892870199</v>
@@ -5916,10 +5916,10 @@
         <v>242.1145636490678</v>
       </c>
       <c r="L22" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M22" t="n">
-        <v>809.9798694642501</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N22" t="n">
         <v>1104.867129907538</v>
@@ -5931,31 +5931,31 @@
         <v>1557.066378230431</v>
       </c>
       <c r="Q22" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R22" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S22" t="n">
-        <v>1505.443183112052</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T22" t="n">
-        <v>1505.443183112052</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U22" t="n">
-        <v>1505.443183112052</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="V22" t="n">
-        <v>1505.443183112052</v>
+        <v>934.3525192189037</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.443183112052</v>
+        <v>644.9353491819431</v>
       </c>
       <c r="X22" t="n">
-        <v>1489.756275090497</v>
+        <v>416.9457982839258</v>
       </c>
       <c r="Y22" t="n">
-        <v>1268.963695946966</v>
+        <v>416.9457982839258</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1061.555358777235</v>
+        <v>1632.791191867207</v>
       </c>
       <c r="C23" t="n">
-        <v>692.5928418368237</v>
+        <v>1263.828674926796</v>
       </c>
       <c r="D23" t="n">
-        <v>334.3271432300732</v>
+        <v>1263.828674926796</v>
       </c>
       <c r="E23" t="n">
-        <v>334.3271432300732</v>
+        <v>878.0404223285514</v>
       </c>
       <c r="F23" t="n">
-        <v>334.3271432300732</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="G23" t="n">
         <v>51.29057888696726</v>
@@ -5992,13 +5992,13 @@
         <v>182.6484035402486</v>
       </c>
       <c r="K23" t="n">
-        <v>430.2582499382139</v>
+        <v>430.2582499382138</v>
       </c>
       <c r="L23" t="n">
-        <v>774.3419214131802</v>
+        <v>774.34192141318</v>
       </c>
       <c r="M23" t="n">
-        <v>1188.870741198924</v>
+        <v>1188.870741198923</v>
       </c>
       <c r="N23" t="n">
         <v>1614.720879044172</v>
@@ -6022,19 +6022,19 @@
         <v>2564.528944348363</v>
       </c>
       <c r="U23" t="n">
-        <v>2564.528944348363</v>
+        <v>2396.396282104099</v>
       </c>
       <c r="V23" t="n">
-        <v>2564.528944348363</v>
+        <v>2396.396282104099</v>
       </c>
       <c r="W23" t="n">
-        <v>2211.760289078249</v>
+        <v>2396.396282104099</v>
       </c>
       <c r="X23" t="n">
-        <v>1838.294530817169</v>
+        <v>2022.930523843019</v>
       </c>
       <c r="Y23" t="n">
-        <v>1448.155198841357</v>
+        <v>1632.791191867207</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>932.7757971549145</v>
+        <v>932.7757971549136</v>
       </c>
       <c r="C24" t="n">
-        <v>758.3227678737875</v>
+        <v>758.3227678737866</v>
       </c>
       <c r="D24" t="n">
-        <v>609.3883582125361</v>
+        <v>609.3883582125352</v>
       </c>
       <c r="E24" t="n">
-        <v>450.1509032070805</v>
+        <v>450.1509032070796</v>
       </c>
       <c r="F24" t="n">
-        <v>303.6163452339656</v>
+        <v>303.6163452339647</v>
       </c>
       <c r="G24" t="n">
-        <v>166.8832661033213</v>
+        <v>166.8832661033207</v>
       </c>
       <c r="H24" t="n">
-        <v>72.80815385915348</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I24" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J24" t="n">
-        <v>235.538677389286</v>
+        <v>110.7085524022812</v>
       </c>
       <c r="K24" t="n">
-        <v>634.2717485637555</v>
+        <v>290.4181578204566</v>
       </c>
       <c r="L24" t="n">
-        <v>922.2360317464181</v>
+        <v>837.3453538579504</v>
       </c>
       <c r="M24" t="n">
-        <v>1277.63363599509</v>
+        <v>1192.742958106622</v>
       </c>
       <c r="N24" t="n">
-        <v>1656.846202225395</v>
+        <v>1571.955524336927</v>
       </c>
       <c r="O24" t="n">
-        <v>1981.531819939152</v>
+        <v>1896.641142050684</v>
       </c>
       <c r="P24" t="n">
-        <v>2222.787586700861</v>
+        <v>2453.17504976593</v>
       </c>
       <c r="Q24" t="n">
-        <v>2542.117996141784</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R24" t="n">
         <v>2564.528944348363</v>
@@ -6098,22 +6098,22 @@
         <v>2428.218860870717</v>
       </c>
       <c r="T24" t="n">
-        <v>2234.084585692265</v>
+        <v>2234.084585692264</v>
       </c>
       <c r="U24" t="n">
         <v>2005.992398105413</v>
       </c>
       <c r="V24" t="n">
-        <v>1770.840289873671</v>
+        <v>1770.84028987367</v>
       </c>
       <c r="W24" t="n">
-        <v>1516.602933145469</v>
+        <v>1516.602933145468</v>
       </c>
       <c r="X24" t="n">
         <v>1308.751432939936</v>
       </c>
       <c r="Y24" t="n">
-        <v>1100.991134174983</v>
+        <v>1100.991134174982</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>51.29057888696726</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="C25" t="n">
-        <v>51.29057888696726</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="D25" t="n">
-        <v>51.29057888696726</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="E25" t="n">
-        <v>51.29057888696726</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="F25" t="n">
-        <v>51.29057888696726</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="G25" t="n">
         <v>51.29057888696726</v>
@@ -6147,52 +6147,52 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J25" t="n">
-        <v>74.9200300130416</v>
+        <v>74.92003001304158</v>
       </c>
       <c r="K25" t="n">
         <v>243.5873136073331</v>
       </c>
       <c r="L25" t="n">
-        <v>514.9498010977009</v>
+        <v>514.9498010977007</v>
       </c>
       <c r="M25" t="n">
-        <v>811.4526194225153</v>
+        <v>811.4526194225152</v>
       </c>
       <c r="N25" t="n">
-        <v>1106.339879865804</v>
+        <v>1106.339879865803</v>
       </c>
       <c r="O25" t="n">
-        <v>1362.699698256868</v>
+        <v>1362.699698256867</v>
       </c>
       <c r="P25" t="n">
         <v>1558.539128188696</v>
       </c>
       <c r="Q25" t="n">
-        <v>1610.693118163192</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="R25" t="n">
-        <v>1610.693118163192</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="S25" t="n">
-        <v>1610.693118163192</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.601197013007</v>
+        <v>1462.163053088531</v>
       </c>
       <c r="U25" t="n">
-        <v>1098.481411342229</v>
+        <v>1173.043267417753</v>
       </c>
       <c r="V25" t="n">
-        <v>843.7969231363421</v>
+        <v>918.3587792118662</v>
       </c>
       <c r="W25" t="n">
-        <v>554.3797530993816</v>
+        <v>628.9416091749057</v>
       </c>
       <c r="X25" t="n">
-        <v>326.3902022013642</v>
+        <v>400.9520582768884</v>
       </c>
       <c r="Y25" t="n">
-        <v>232.939043717207</v>
+        <v>400.9520582768884</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>946.6959313686339</v>
+        <v>1034.690255643752</v>
       </c>
       <c r="C26" t="n">
-        <v>946.6959313686339</v>
+        <v>848.0647362748191</v>
       </c>
       <c r="D26" t="n">
-        <v>946.6959313686339</v>
+        <v>848.0647362748191</v>
       </c>
       <c r="E26" t="n">
-        <v>946.6959313686339</v>
+        <v>462.2764836765748</v>
       </c>
       <c r="F26" t="n">
-        <v>535.7100265790262</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="G26" t="n">
-        <v>119.9460879270497</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="H26" t="n">
-        <v>119.9460879270497</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I26" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J26" t="n">
         <v>182.6484035402486</v>
       </c>
       <c r="K26" t="n">
-        <v>430.2582499382139</v>
+        <v>430.2582499382138</v>
       </c>
       <c r="L26" t="n">
-        <v>774.3419214131802</v>
+        <v>774.34192141318</v>
       </c>
       <c r="M26" t="n">
-        <v>1261.035489153923</v>
+        <v>1188.870741198923</v>
       </c>
       <c r="N26" t="n">
-        <v>1686.885626999171</v>
+        <v>1614.720879044172</v>
       </c>
       <c r="O26" t="n">
         <v>2075.668575230788</v>
@@ -6247,31 +6247,31 @@
         <v>2372.984825876113</v>
       </c>
       <c r="Q26" t="n">
-        <v>2548.08420147501</v>
+        <v>2548.084201475011</v>
       </c>
       <c r="R26" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S26" t="n">
-        <v>2438.480981750686</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="T26" t="n">
-        <v>2229.476243239409</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="U26" t="n">
-        <v>2229.476243239409</v>
+        <v>2184.895185944765</v>
       </c>
       <c r="V26" t="n">
-        <v>1898.413355895838</v>
+        <v>2184.895185944765</v>
       </c>
       <c r="W26" t="n">
-        <v>1545.644700625724</v>
+        <v>2184.895185944765</v>
       </c>
       <c r="X26" t="n">
-        <v>1172.178942364644</v>
+        <v>1811.429427683685</v>
       </c>
       <c r="Y26" t="n">
-        <v>1172.178942364644</v>
+        <v>1421.290095707874</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>932.7757971549141</v>
+        <v>932.775797154914</v>
       </c>
       <c r="C27" t="n">
-        <v>758.3227678737871</v>
+        <v>758.322767873787</v>
       </c>
       <c r="D27" t="n">
         <v>609.3883582125359</v>
       </c>
       <c r="E27" t="n">
-        <v>450.1509032070804</v>
+        <v>450.1509032070803</v>
       </c>
       <c r="F27" t="n">
         <v>303.6163452339654</v>
@@ -6302,28 +6302,28 @@
         <v>72.80815385915349</v>
       </c>
       <c r="I27" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J27" t="n">
         <v>110.7085524022813</v>
       </c>
       <c r="K27" t="n">
-        <v>549.3810706752876</v>
+        <v>552.2387424629094</v>
       </c>
       <c r="L27" t="n">
-        <v>837.3453538579502</v>
+        <v>840.2030256455719</v>
       </c>
       <c r="M27" t="n">
-        <v>1192.742958106622</v>
+        <v>1195.600629894243</v>
       </c>
       <c r="N27" t="n">
-        <v>1571.955524336927</v>
+        <v>1574.813196124548</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.641142050684</v>
+        <v>1899.498813838305</v>
       </c>
       <c r="P27" t="n">
-        <v>2453.17504976593</v>
+        <v>2453.175049765931</v>
       </c>
       <c r="Q27" t="n">
         <v>2564.528944348363</v>
@@ -6332,16 +6332,16 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S27" t="n">
-        <v>2428.218860870717</v>
+        <v>2428.218860870718</v>
       </c>
       <c r="T27" t="n">
-        <v>2234.084585692265</v>
+        <v>2234.084585692266</v>
       </c>
       <c r="U27" t="n">
         <v>2005.992398105413</v>
       </c>
       <c r="V27" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W27" t="n">
         <v>1516.602933145469</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>157.9441524958626</v>
+        <v>213.3663282645545</v>
       </c>
       <c r="C28" t="n">
-        <v>157.9441524958626</v>
+        <v>213.3663282645545</v>
       </c>
       <c r="D28" t="n">
-        <v>157.9441524958626</v>
+        <v>213.3663282645545</v>
       </c>
       <c r="E28" t="n">
-        <v>157.9441524958626</v>
+        <v>213.3663282645545</v>
       </c>
       <c r="F28" t="n">
-        <v>157.9441524958626</v>
+        <v>213.3663282645545</v>
       </c>
       <c r="G28" t="n">
-        <v>157.9441524958626</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="H28" t="n">
-        <v>157.9441524958626</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I28" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J28" t="n">
-        <v>74.9200300130416</v>
+        <v>74.92003001304158</v>
       </c>
       <c r="K28" t="n">
         <v>243.5873136073331</v>
       </c>
       <c r="L28" t="n">
-        <v>514.9498010977009</v>
+        <v>514.9498010977007</v>
       </c>
       <c r="M28" t="n">
-        <v>811.4526194225153</v>
+        <v>811.4526194225152</v>
       </c>
       <c r="N28" t="n">
-        <v>1106.339879865804</v>
+        <v>1106.339879865803</v>
       </c>
       <c r="O28" t="n">
-        <v>1362.699698256868</v>
+        <v>1362.699698256867</v>
       </c>
       <c r="P28" t="n">
         <v>1558.539128188696</v>
       </c>
       <c r="Q28" t="n">
-        <v>1610.693118163192</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="R28" t="n">
-        <v>1610.693118163192</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="S28" t="n">
-        <v>1413.601678533241</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="T28" t="n">
-        <v>1366.911703075389</v>
+        <v>1387.601197013007</v>
       </c>
       <c r="U28" t="n">
-        <v>1077.79191740461</v>
+        <v>1098.481411342229</v>
       </c>
       <c r="V28" t="n">
-        <v>1077.79191740461</v>
+        <v>843.7969231363417</v>
       </c>
       <c r="W28" t="n">
-        <v>788.3747473676498</v>
+        <v>843.7969231363417</v>
       </c>
       <c r="X28" t="n">
-        <v>560.3851964696324</v>
+        <v>615.8073722383243</v>
       </c>
       <c r="Y28" t="n">
-        <v>339.5926173261023</v>
+        <v>395.0147930947942</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>972.4305827211169</v>
+        <v>1322.107236243681</v>
       </c>
       <c r="C29" t="n">
-        <v>972.4305827211169</v>
+        <v>953.1447193032691</v>
       </c>
       <c r="D29" t="n">
-        <v>972.4305827211169</v>
+        <v>852.8427701371879</v>
       </c>
       <c r="E29" t="n">
-        <v>586.6423301228726</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="F29" t="n">
-        <v>535.7100265790262</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="G29" t="n">
-        <v>119.9460879270497</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="H29" t="n">
-        <v>119.9460879270497</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I29" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J29" t="n">
-        <v>254.8131514952473</v>
+        <v>182.6484035402486</v>
       </c>
       <c r="K29" t="n">
-        <v>502.4229978932127</v>
+        <v>430.2582499382138</v>
       </c>
       <c r="L29" t="n">
-        <v>846.506669368179</v>
+        <v>774.34192141318</v>
       </c>
       <c r="M29" t="n">
-        <v>1261.035489153923</v>
+        <v>1188.870741198923</v>
       </c>
       <c r="N29" t="n">
-        <v>1686.885626999171</v>
+        <v>1614.720879044172</v>
       </c>
       <c r="O29" t="n">
-        <v>2075.668575230788</v>
+        <v>2003.503827275789</v>
       </c>
       <c r="P29" t="n">
-        <v>2372.984825876113</v>
+        <v>2300.820077921114</v>
       </c>
       <c r="Q29" t="n">
-        <v>2548.08420147501</v>
+        <v>2483.024945800758</v>
       </c>
       <c r="R29" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S29" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="T29" t="n">
-        <v>2355.524205837086</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="U29" t="n">
-        <v>2101.938410031164</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="V29" t="n">
-        <v>2101.938410031164</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="W29" t="n">
-        <v>1749.16975476105</v>
+        <v>2085.712326480572</v>
       </c>
       <c r="X29" t="n">
-        <v>1749.16975476105</v>
+        <v>1712.246568219492</v>
       </c>
       <c r="Y29" t="n">
-        <v>1359.030422785239</v>
+        <v>1322.107236243681</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549145</v>
       </c>
       <c r="C30" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737875</v>
       </c>
       <c r="D30" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125361</v>
       </c>
       <c r="E30" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070805</v>
       </c>
       <c r="F30" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339656</v>
       </c>
       <c r="G30" t="n">
-        <v>166.8832661033211</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H30" t="n">
-        <v>72.80815385915382</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I30" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J30" t="n">
-        <v>235.538677389286</v>
+        <v>192.7415585031281</v>
       </c>
       <c r="K30" t="n">
-        <v>634.2717485637555</v>
+        <v>634.2717485637563</v>
       </c>
       <c r="L30" t="n">
-        <v>922.2360317464181</v>
+        <v>922.2360317464188</v>
       </c>
       <c r="M30" t="n">
         <v>1277.63363599509</v>
@@ -6569,16 +6569,16 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S30" t="n">
-        <v>2428.218860870717</v>
+        <v>2428.218860870718</v>
       </c>
       <c r="T30" t="n">
-        <v>2234.084585692265</v>
+        <v>2234.084585692266</v>
       </c>
       <c r="U30" t="n">
         <v>2005.992398105413</v>
       </c>
       <c r="V30" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W30" t="n">
         <v>1516.602933145469</v>
@@ -6587,7 +6587,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y30" t="n">
-        <v>1100.991134174982</v>
+        <v>1100.991134174983</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>51.29057888696726</v>
+        <v>248.6134986287223</v>
       </c>
       <c r="C31" t="n">
-        <v>51.29057888696726</v>
+        <v>248.6134986287223</v>
       </c>
       <c r="D31" t="n">
-        <v>51.29057888696726</v>
+        <v>248.6134986287223</v>
       </c>
       <c r="E31" t="n">
-        <v>51.29057888696726</v>
+        <v>248.6134986287223</v>
       </c>
       <c r="F31" t="n">
-        <v>51.29057888696726</v>
+        <v>101.723551130812</v>
       </c>
       <c r="G31" t="n">
-        <v>51.29057888696726</v>
+        <v>101.723551130812</v>
       </c>
       <c r="H31" t="n">
-        <v>51.29057888696726</v>
+        <v>101.723551130812</v>
       </c>
       <c r="I31" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J31" t="n">
-        <v>74.9200300130416</v>
+        <v>74.92003001304158</v>
       </c>
       <c r="K31" t="n">
         <v>243.5873136073331</v>
       </c>
       <c r="L31" t="n">
-        <v>514.9498010977009</v>
+        <v>514.9498010977007</v>
       </c>
       <c r="M31" t="n">
-        <v>811.4526194225153</v>
+        <v>811.4526194225152</v>
       </c>
       <c r="N31" t="n">
-        <v>1106.339879865804</v>
+        <v>1106.339879865803</v>
       </c>
       <c r="O31" t="n">
-        <v>1362.699698256868</v>
+        <v>1362.699698256867</v>
       </c>
       <c r="P31" t="n">
         <v>1558.539128188696</v>
       </c>
       <c r="Q31" t="n">
-        <v>1610.693118163192</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="R31" t="n">
-        <v>1610.693118163192</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="S31" t="n">
-        <v>1413.601678533241</v>
+        <v>1309.824493440365</v>
       </c>
       <c r="T31" t="n">
-        <v>1225.822832001602</v>
+        <v>1309.824493440365</v>
       </c>
       <c r="U31" t="n">
-        <v>1225.822832001602</v>
+        <v>1020.704707769587</v>
       </c>
       <c r="V31" t="n">
-        <v>971.1383437957149</v>
+        <v>766.0202195637003</v>
       </c>
       <c r="W31" t="n">
-        <v>681.7211737587544</v>
+        <v>476.6030495267397</v>
       </c>
       <c r="X31" t="n">
-        <v>453.731622860737</v>
+        <v>248.6134986287223</v>
       </c>
       <c r="Y31" t="n">
-        <v>232.939043717207</v>
+        <v>248.6134986287223</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1232.962556072456</v>
+        <v>1589.290607369366</v>
       </c>
       <c r="C32" t="n">
-        <v>864.0000391320445</v>
+        <v>1220.328090428954</v>
       </c>
       <c r="D32" t="n">
-        <v>505.734340525294</v>
+        <v>862.0623918222038</v>
       </c>
       <c r="E32" t="n">
-        <v>119.9460879270497</v>
+        <v>476.2741392239596</v>
       </c>
       <c r="F32" t="n">
-        <v>119.9460879270497</v>
+        <v>65.28823443435203</v>
       </c>
       <c r="G32" t="n">
-        <v>119.9460879270497</v>
+        <v>65.28823443435203</v>
       </c>
       <c r="H32" t="n">
-        <v>119.9460879270497</v>
+        <v>65.28823443435203</v>
       </c>
       <c r="I32" t="n">
         <v>51.29057888696726</v>
@@ -6703,49 +6703,49 @@
         <v>182.6484035402486</v>
       </c>
       <c r="K32" t="n">
-        <v>430.2582499382139</v>
+        <v>430.2582499382138</v>
       </c>
       <c r="L32" t="n">
-        <v>774.3419214131802</v>
+        <v>774.34192141318</v>
       </c>
       <c r="M32" t="n">
-        <v>1188.870741198924</v>
+        <v>1188.870741198923</v>
       </c>
       <c r="N32" t="n">
         <v>1614.720879044172</v>
       </c>
       <c r="O32" t="n">
-        <v>2003.503827275789</v>
+        <v>2075.668575230788</v>
       </c>
       <c r="P32" t="n">
-        <v>2307.92557020186</v>
+        <v>2372.984825876113</v>
       </c>
       <c r="Q32" t="n">
-        <v>2483.024945800757</v>
+        <v>2548.08420147501</v>
       </c>
       <c r="R32" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S32" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T32" t="n">
-        <v>2564.528944348363</v>
+        <v>2229.476243239409</v>
       </c>
       <c r="U32" t="n">
-        <v>2564.528944348363</v>
+        <v>1975.890447433488</v>
       </c>
       <c r="V32" t="n">
-        <v>2233.466057004792</v>
+        <v>1975.890447433488</v>
       </c>
       <c r="W32" t="n">
-        <v>2233.466057004792</v>
+        <v>1975.890447433488</v>
       </c>
       <c r="X32" t="n">
-        <v>1860.000298743712</v>
+        <v>1975.890447433488</v>
       </c>
       <c r="Y32" t="n">
-        <v>1619.562396136578</v>
+        <v>1975.890447433488</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>932.7757971549141</v>
+        <v>932.7757971549145</v>
       </c>
       <c r="C33" t="n">
-        <v>758.3227678737871</v>
+        <v>758.3227678737875</v>
       </c>
       <c r="D33" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125361</v>
       </c>
       <c r="E33" t="n">
-        <v>450.1509032070804</v>
+        <v>450.1509032070805</v>
       </c>
       <c r="F33" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339656</v>
       </c>
       <c r="G33" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033213</v>
       </c>
       <c r="H33" t="n">
         <v>72.80815385915349</v>
@@ -6779,22 +6779,22 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J33" t="n">
-        <v>110.7085524022813</v>
+        <v>110.7085524022812</v>
       </c>
       <c r="K33" t="n">
-        <v>318.9936076102179</v>
+        <v>290.4181578204566</v>
       </c>
       <c r="L33" t="n">
-        <v>606.9578907928804</v>
+        <v>578.3824410031191</v>
       </c>
       <c r="M33" t="n">
-        <v>962.355495041552</v>
+        <v>933.7800452517906</v>
       </c>
       <c r="N33" t="n">
-        <v>1341.568061271857</v>
+        <v>1346.810906212932</v>
       </c>
       <c r="O33" t="n">
-        <v>1666.253678985614</v>
+        <v>1981.531819939152</v>
       </c>
       <c r="P33" t="n">
         <v>2222.787586700861</v>
@@ -6815,7 +6815,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V33" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W33" t="n">
         <v>1516.602933145469</v>
@@ -6824,7 +6824,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y33" t="n">
-        <v>1100.991134174982</v>
+        <v>1100.991134174983</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>332.3836799556823</v>
+        <v>518.2564948096031</v>
       </c>
       <c r="C34" t="n">
-        <v>163.4474970277754</v>
+        <v>349.3203118816961</v>
       </c>
       <c r="D34" t="n">
-        <v>163.4474970277754</v>
+        <v>199.2036724693604</v>
       </c>
       <c r="E34" t="n">
-        <v>163.4474970277754</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="F34" t="n">
-        <v>163.4474970277754</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G34" t="n">
         <v>51.29057888696726</v>
@@ -6858,52 +6858,52 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J34" t="n">
-        <v>74.9200300130416</v>
+        <v>74.92003001304158</v>
       </c>
       <c r="K34" t="n">
         <v>243.5873136073331</v>
       </c>
       <c r="L34" t="n">
-        <v>514.9498010977009</v>
+        <v>514.9498010977007</v>
       </c>
       <c r="M34" t="n">
-        <v>811.4526194225153</v>
+        <v>811.4526194225152</v>
       </c>
       <c r="N34" t="n">
-        <v>1106.339879865804</v>
+        <v>1106.339879865803</v>
       </c>
       <c r="O34" t="n">
-        <v>1362.699698256868</v>
+        <v>1362.699698256867</v>
       </c>
       <c r="P34" t="n">
         <v>1558.539128188696</v>
       </c>
       <c r="Q34" t="n">
-        <v>1610.693118163192</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="R34" t="n">
-        <v>1506.915933070317</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="S34" t="n">
-        <v>1506.915933070317</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="T34" t="n">
-        <v>1506.915933070317</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="U34" t="n">
-        <v>1506.915933070317</v>
+        <v>1321.573332492413</v>
       </c>
       <c r="V34" t="n">
-        <v>1252.23144486443</v>
+        <v>1066.888844286526</v>
       </c>
       <c r="W34" t="n">
-        <v>962.8142748274695</v>
+        <v>1066.888844286526</v>
       </c>
       <c r="X34" t="n">
-        <v>734.8247239294521</v>
+        <v>838.8992933885088</v>
       </c>
       <c r="Y34" t="n">
-        <v>514.032144785922</v>
+        <v>618.1067142449787</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>793.4085096902909</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="C35" t="n">
-        <v>424.4459927498792</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="D35" t="n">
-        <v>66.18029414312866</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E35" t="n">
-        <v>49.81782892870198</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F35" t="n">
-        <v>49.81782892870198</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G35" t="n">
         <v>49.81782892870198</v>
@@ -6937,13 +6937,13 @@
         <v>49.81782892870198</v>
       </c>
       <c r="J35" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K35" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799486</v>
       </c>
       <c r="L35" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M35" t="n">
         <v>1187.397991240658</v>
@@ -6955,7 +6955,7 @@
         <v>2002.031077317523</v>
       </c>
       <c r="P35" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.347327962848</v>
       </c>
       <c r="Q35" t="n">
         <v>2474.446703561746</v>
@@ -6964,25 +6964,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S35" t="n">
-        <v>2490.891446435099</v>
+        <v>2412.560855269544</v>
       </c>
       <c r="T35" t="n">
-        <v>2490.891446435099</v>
+        <v>2412.560855269544</v>
       </c>
       <c r="U35" t="n">
-        <v>2237.305650629177</v>
+        <v>2412.560855269544</v>
       </c>
       <c r="V35" t="n">
-        <v>1906.242763285607</v>
+        <v>2412.560855269544</v>
       </c>
       <c r="W35" t="n">
-        <v>1553.474108015492</v>
+        <v>2412.560855269544</v>
       </c>
       <c r="X35" t="n">
-        <v>1180.008349754413</v>
+        <v>2039.095097008464</v>
       </c>
       <c r="Y35" t="n">
-        <v>1180.008349754413</v>
+        <v>1648.955765032652</v>
       </c>
     </row>
     <row r="36">
@@ -7007,10 +7007,10 @@
         <v>229.978847320701</v>
       </c>
       <c r="G36" t="n">
-        <v>165.4105161450557</v>
+        <v>93.24576819005659</v>
       </c>
       <c r="H36" t="n">
-        <v>71.3354039008882</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I36" t="n">
         <v>49.81782892870198</v>
@@ -7019,16 +7019,16 @@
         <v>234.0659274310207</v>
       </c>
       <c r="K36" t="n">
-        <v>413.7755328491961</v>
+        <v>560.6342506504916</v>
       </c>
       <c r="L36" t="n">
-        <v>701.7398160318587</v>
+        <v>848.5985338331541</v>
       </c>
       <c r="M36" t="n">
-        <v>1057.13742028053</v>
+        <v>1203.996138081826</v>
       </c>
       <c r="N36" t="n">
-        <v>1436.349986510835</v>
+        <v>1583.20870431213</v>
       </c>
       <c r="O36" t="n">
         <v>1907.894322025887</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>832.7485639254384</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="C37" t="n">
-        <v>663.8123809975315</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="D37" t="n">
-        <v>513.6957415851957</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="E37" t="n">
-        <v>513.6957415851957</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="F37" t="n">
-        <v>366.8057940872854</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="G37" t="n">
-        <v>198.792779527604</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H37" t="n">
         <v>49.81782892870198</v>
@@ -7095,16 +7095,16 @@
         <v>49.81782892870198</v>
       </c>
       <c r="J37" t="n">
-        <v>73.44728005477631</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K37" t="n">
         <v>242.1145636490678</v>
       </c>
       <c r="L37" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M37" t="n">
-        <v>809.9798694642501</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N37" t="n">
         <v>1104.867129907538</v>
@@ -7116,31 +7116,31 @@
         <v>1557.066378230431</v>
       </c>
       <c r="Q37" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R37" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S37" t="n">
         <v>1412.128928574975</v>
       </c>
       <c r="T37" t="n">
-        <v>1412.128928574975</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U37" t="n">
-        <v>1123.009142904197</v>
+        <v>899.9172217540123</v>
       </c>
       <c r="V37" t="n">
-        <v>1123.009142904197</v>
+        <v>645.2327335481255</v>
       </c>
       <c r="W37" t="n">
-        <v>833.5919728672366</v>
+        <v>355.8155635111648</v>
       </c>
       <c r="X37" t="n">
-        <v>833.5919728672366</v>
+        <v>127.8260126131475</v>
       </c>
       <c r="Y37" t="n">
-        <v>833.5919728672366</v>
+        <v>49.81782892870198</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1647.253744766167</v>
+        <v>1631.318441908942</v>
       </c>
       <c r="C38" t="n">
-        <v>1278.291227825756</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="D38" t="n">
-        <v>920.0255292190052</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E38" t="n">
-        <v>534.2372766207609</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F38" t="n">
-        <v>534.2372766207609</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G38" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H38" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I38" t="n">
         <v>49.81782892870198</v>
@@ -7177,49 +7177,49 @@
         <v>181.1756535819833</v>
       </c>
       <c r="K38" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799486</v>
       </c>
       <c r="L38" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M38" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N38" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085906</v>
       </c>
       <c r="O38" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P38" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.347327962848</v>
       </c>
       <c r="Q38" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561745</v>
       </c>
       <c r="R38" t="n">
         <v>2490.891446435099</v>
       </c>
       <c r="S38" t="n">
-        <v>2364.843483837422</v>
+        <v>2394.923532145834</v>
       </c>
       <c r="T38" t="n">
-        <v>2364.843483837422</v>
+        <v>2394.923532145834</v>
       </c>
       <c r="U38" t="n">
-        <v>2111.2576880315</v>
+        <v>2394.923532145834</v>
       </c>
       <c r="V38" t="n">
-        <v>1780.19480068793</v>
+        <v>2394.923532145834</v>
       </c>
       <c r="W38" t="n">
-        <v>1780.19480068793</v>
+        <v>2394.923532145834</v>
       </c>
       <c r="X38" t="n">
-        <v>1780.19480068793</v>
+        <v>2021.457773884754</v>
       </c>
       <c r="Y38" t="n">
-        <v>1647.253744766167</v>
+        <v>1631.318441908942</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>859.1382992416497</v>
+        <v>909.7854722244628</v>
       </c>
       <c r="C39" t="n">
-        <v>684.6852699605228</v>
+        <v>735.3324429433358</v>
       </c>
       <c r="D39" t="n">
-        <v>535.7508602992715</v>
+        <v>586.3980332820845</v>
       </c>
       <c r="E39" t="n">
-        <v>376.513405293816</v>
+        <v>427.1605782766289</v>
       </c>
       <c r="F39" t="n">
-        <v>302.1435952757001</v>
+        <v>280.6260203035139</v>
       </c>
       <c r="G39" t="n">
-        <v>165.4105161450557</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H39" t="n">
-        <v>71.3354039008882</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I39" t="n">
         <v>49.81782892870198</v>
@@ -7256,16 +7256,16 @@
         <v>234.0659274310207</v>
       </c>
       <c r="K39" t="n">
-        <v>413.7755328491961</v>
+        <v>560.6342506504916</v>
       </c>
       <c r="L39" t="n">
-        <v>701.7398160318587</v>
+        <v>848.5985338331541</v>
       </c>
       <c r="M39" t="n">
-        <v>1057.13742028053</v>
+        <v>1203.996138081826</v>
       </c>
       <c r="N39" t="n">
-        <v>1436.349986510835</v>
+        <v>1583.20870431213</v>
       </c>
       <c r="O39" t="n">
         <v>1907.894322025887</v>
@@ -7280,25 +7280,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S39" t="n">
-        <v>2354.581362957453</v>
+        <v>2405.228535940266</v>
       </c>
       <c r="T39" t="n">
-        <v>2160.447087779</v>
+        <v>2211.094260761814</v>
       </c>
       <c r="U39" t="n">
-        <v>1932.354900192149</v>
+        <v>1983.002073174962</v>
       </c>
       <c r="V39" t="n">
-        <v>1697.202791960406</v>
+        <v>1747.849964943219</v>
       </c>
       <c r="W39" t="n">
-        <v>1442.965435232205</v>
+        <v>1493.612608215017</v>
       </c>
       <c r="X39" t="n">
-        <v>1235.113935026672</v>
+        <v>1285.761108009485</v>
       </c>
       <c r="Y39" t="n">
-        <v>1027.353636261718</v>
+        <v>1078.000809244531</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>664.7355493657569</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="C40" t="n">
-        <v>495.79936643785</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="D40" t="n">
-        <v>345.6827270255143</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="E40" t="n">
-        <v>345.6827270255143</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="F40" t="n">
-        <v>198.792779527604</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="G40" t="n">
-        <v>198.792779527604</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H40" t="n">
         <v>49.81782892870198</v>
@@ -7332,16 +7332,16 @@
         <v>49.81782892870198</v>
       </c>
       <c r="J40" t="n">
-        <v>73.44728005477631</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K40" t="n">
         <v>242.1145636490678</v>
       </c>
       <c r="L40" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M40" t="n">
-        <v>809.9798694642501</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N40" t="n">
         <v>1104.867129907538</v>
@@ -7353,31 +7353,31 @@
         <v>1557.066378230431</v>
       </c>
       <c r="Q40" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R40" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S40" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="T40" t="n">
-        <v>1609.220368204927</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="U40" t="n">
-        <v>1329.058053299901</v>
+        <v>1097.008661383963</v>
       </c>
       <c r="V40" t="n">
-        <v>1074.373565094014</v>
+        <v>842.3241731780766</v>
       </c>
       <c r="W40" t="n">
-        <v>1074.373565094014</v>
+        <v>552.9070031411161</v>
       </c>
       <c r="X40" t="n">
-        <v>846.3840141959967</v>
+        <v>324.9174522430988</v>
       </c>
       <c r="Y40" t="n">
-        <v>846.3840141959967</v>
+        <v>104.1248730995686</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>525.3273265467737</v>
+        <v>819.06943232506</v>
       </c>
       <c r="C41" t="n">
-        <v>525.3273265467737</v>
+        <v>819.06943232506</v>
       </c>
       <c r="D41" t="n">
-        <v>525.3273265467737</v>
+        <v>460.8037337183096</v>
       </c>
       <c r="E41" t="n">
-        <v>525.3273265467737</v>
+        <v>460.8037337183096</v>
       </c>
       <c r="F41" t="n">
-        <v>525.3273265467737</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="G41" t="n">
-        <v>109.5633878947972</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H41" t="n">
-        <v>109.5633878947972</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I41" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J41" t="n">
-        <v>181.1756535819832</v>
+        <v>181.1756535819841</v>
       </c>
       <c r="K41" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799492</v>
       </c>
       <c r="L41" t="n">
-        <v>772.8691714549152</v>
+        <v>772.8691714549157</v>
       </c>
       <c r="M41" t="n">
         <v>1187.397991240659</v>
@@ -7432,31 +7432,31 @@
         <v>2299.347327962849</v>
       </c>
       <c r="Q41" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R41" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S41" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T41" t="n">
-        <v>2281.886707923823</v>
+        <v>2281.886707923822</v>
       </c>
       <c r="U41" t="n">
-        <v>2028.300912117901</v>
+        <v>2281.886707923822</v>
       </c>
       <c r="V41" t="n">
-        <v>2028.300912117901</v>
+        <v>2281.886707923822</v>
       </c>
       <c r="W41" t="n">
-        <v>1675.532256847787</v>
+        <v>1969.274362626073</v>
       </c>
       <c r="X41" t="n">
-        <v>1302.066498586707</v>
+        <v>1595.808604364993</v>
       </c>
       <c r="Y41" t="n">
-        <v>911.9271666108955</v>
+        <v>1205.669272389182</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416497</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605228</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992715</v>
       </c>
       <c r="E42" t="n">
-        <v>448.6781532488152</v>
+        <v>376.513405293816</v>
       </c>
       <c r="F42" t="n">
-        <v>302.1435952757001</v>
+        <v>229.978847320701</v>
       </c>
       <c r="G42" t="n">
-        <v>165.4105161450557</v>
+        <v>93.24576819005659</v>
       </c>
       <c r="H42" t="n">
-        <v>71.33540390088822</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I42" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J42" t="n">
-        <v>234.0659274310208</v>
+        <v>141.5150087964426</v>
       </c>
       <c r="K42" t="n">
-        <v>560.6342506504922</v>
+        <v>583.0451988570708</v>
       </c>
       <c r="L42" t="n">
-        <v>848.5985338331548</v>
+        <v>871.0094820397333</v>
       </c>
       <c r="M42" t="n">
-        <v>1203.996138081826</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N42" t="n">
-        <v>1583.208704312131</v>
+        <v>1605.619652518709</v>
       </c>
       <c r="O42" t="n">
-        <v>1907.894322025888</v>
+        <v>1930.305270232466</v>
       </c>
       <c r="P42" t="n">
-        <v>2149.150088787597</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q42" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R42" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S42" t="n">
-        <v>2354.581362957454</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T42" t="n">
-        <v>2232.611835734</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U42" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V42" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W42" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X42" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y42" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="43">
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>980.6616575078316</v>
+        <v>439.5857448381244</v>
       </c>
       <c r="C43" t="n">
-        <v>811.7254745799247</v>
+        <v>270.6495619102175</v>
       </c>
       <c r="D43" t="n">
-        <v>661.6088351675889</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="E43" t="n">
-        <v>513.6957415851958</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="F43" t="n">
-        <v>366.8057940872854</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G43" t="n">
-        <v>198.792779527604</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H43" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I43" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J43" t="n">
-        <v>73.44728005477633</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K43" t="n">
         <v>242.1145636490678</v>
       </c>
       <c r="L43" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M43" t="n">
-        <v>809.9798694642501</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N43" t="n">
         <v>1104.867129907538</v>
@@ -7590,31 +7590,31 @@
         <v>1557.066378230431</v>
       </c>
       <c r="Q43" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R43" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S43" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="T43" t="n">
         <v>1386.128447054742</v>
       </c>
       <c r="U43" t="n">
-        <v>1097.008661383964</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="V43" t="n">
-        <v>1097.008661383964</v>
+        <v>1131.443958848855</v>
       </c>
       <c r="W43" t="n">
-        <v>1097.008661383964</v>
+        <v>842.0267888118942</v>
       </c>
       <c r="X43" t="n">
-        <v>1097.008661383964</v>
+        <v>842.0267888118942</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.008661383964</v>
+        <v>621.2342096683641</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1040.826305353694</v>
+        <v>1427.426145417815</v>
       </c>
       <c r="C44" t="n">
-        <v>671.8637884132822</v>
+        <v>1427.426145417815</v>
       </c>
       <c r="D44" t="n">
-        <v>671.8637884132822</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E44" t="n">
-        <v>534.2372766207609</v>
+        <v>876.567672370286</v>
       </c>
       <c r="F44" t="n">
-        <v>534.2372766207609</v>
+        <v>465.5817675806784</v>
       </c>
       <c r="G44" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="H44" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I44" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J44" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819832</v>
       </c>
       <c r="K44" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799484</v>
       </c>
       <c r="L44" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549145</v>
       </c>
       <c r="M44" t="n">
         <v>1187.397991240658</v>
       </c>
       <c r="N44" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085906</v>
       </c>
       <c r="O44" t="n">
         <v>2002.031077317523</v>
       </c>
       <c r="P44" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.347327962848</v>
       </c>
       <c r="Q44" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561745</v>
       </c>
       <c r="R44" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="S44" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="T44" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="U44" t="n">
         <v>2111.2576880315</v>
       </c>
       <c r="V44" t="n">
-        <v>1780.19480068793</v>
+        <v>1780.194800687929</v>
       </c>
       <c r="W44" t="n">
-        <v>1427.426145417816</v>
+        <v>1427.426145417815</v>
       </c>
       <c r="X44" t="n">
-        <v>1427.426145417816</v>
+        <v>1427.426145417815</v>
       </c>
       <c r="Y44" t="n">
-        <v>1427.426145417816</v>
+        <v>1427.426145417815</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>909.7854722244628</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C45" t="n">
-        <v>735.3324429433358</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D45" t="n">
-        <v>586.3980332820845</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E45" t="n">
-        <v>427.1605782766289</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F45" t="n">
-        <v>280.6260203035139</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G45" t="n">
-        <v>143.8929411728695</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H45" t="n">
-        <v>49.81782892870198</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I45" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J45" t="n">
-        <v>119.104060589863</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K45" t="n">
-        <v>560.6342506504913</v>
+        <v>675.5961174916488</v>
       </c>
       <c r="L45" t="n">
-        <v>848.5985338331539</v>
+        <v>963.5604006743113</v>
       </c>
       <c r="M45" t="n">
-        <v>1203.996138081825</v>
+        <v>1318.958004922983</v>
       </c>
       <c r="N45" t="n">
-        <v>1583.20870431213</v>
+        <v>1698.170571153287</v>
       </c>
       <c r="O45" t="n">
-        <v>1907.894322025887</v>
+        <v>2022.856188867044</v>
       </c>
       <c r="P45" t="n">
-        <v>2149.150088787596</v>
+        <v>2264.111955628753</v>
       </c>
       <c r="Q45" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="R45" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="S45" t="n">
-        <v>2354.581362957453</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T45" t="n">
-        <v>2160.447087779</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U45" t="n">
-        <v>1932.354900192149</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V45" t="n">
-        <v>1697.202791960406</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W45" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X45" t="n">
-        <v>1235.113935026672</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y45" t="n">
-        <v>1027.353636261718</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="46">
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>327.2167942497534</v>
+        <v>980.6616575078315</v>
       </c>
       <c r="C46" t="n">
-        <v>327.2167942497534</v>
+        <v>811.7254745799246</v>
       </c>
       <c r="D46" t="n">
-        <v>196.7077764266123</v>
+        <v>661.6088351675888</v>
       </c>
       <c r="E46" t="n">
-        <v>196.7077764266123</v>
+        <v>513.6957415851957</v>
       </c>
       <c r="F46" t="n">
-        <v>49.81782892870198</v>
+        <v>366.8057940872853</v>
       </c>
       <c r="G46" t="n">
-        <v>49.81782892870198</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H46" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I46" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J46" t="n">
-        <v>73.44728005477631</v>
+        <v>73.44728005477626</v>
       </c>
       <c r="K46" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490677</v>
       </c>
       <c r="L46" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394354</v>
       </c>
       <c r="M46" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642498</v>
       </c>
       <c r="N46" t="n">
         <v>1104.867129907538</v>
@@ -7824,34 +7824,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P46" t="n">
-        <v>1557.066378230431</v>
+        <v>1557.06637823043</v>
       </c>
       <c r="Q46" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R46" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S46" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="T46" t="n">
-        <v>1609.220368204927</v>
+        <v>1386.128447054741</v>
       </c>
       <c r="U46" t="n">
-        <v>1320.100582534149</v>
+        <v>1386.128447054741</v>
       </c>
       <c r="V46" t="n">
-        <v>1065.416094328262</v>
+        <v>1383.102701481601</v>
       </c>
       <c r="W46" t="n">
-        <v>775.9989242913009</v>
+        <v>1383.102701481601</v>
       </c>
       <c r="X46" t="n">
-        <v>548.0093733932836</v>
+        <v>1383.102701481601</v>
       </c>
       <c r="Y46" t="n">
-        <v>327.2167942497534</v>
+        <v>1162.310122338071</v>
       </c>
     </row>
   </sheetData>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>170.9794606140144</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>148.3421391932279</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>22.8843483905338</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>148.3421391932279</v>
+        <v>148.3421391932285</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>170.9794606140149</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>93.95418991649845</v>
       </c>
       <c r="R18" t="n">
-        <v>22.8843483905338</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.556088591314619e-12</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>188.6850150503365</v>
       </c>
       <c r="L21" t="n">
-        <v>148.3421391932279</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053382</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>7.177264930046221</v>
+        <v>7.177264930046732</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>221.2358239962567</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>261.5786998533649</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053382</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,13 +9883,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>72.89368480302915</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>72.89368480302983</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>261.5786998533645</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>315.5762314807241</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>22.8843483905338</v>
+        <v>22.88434839053382</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>72.893684803029</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>7.177264930047215</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>82.86162232408776</v>
       </c>
       <c r="K30" t="n">
-        <v>221.2358239962567</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>72.89368480302937</v>
       </c>
       <c r="P32" t="n">
-        <v>7.177264930046249</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>28.86409069672845</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,13 +10439,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>34.15989366751154</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>313.1669656691544</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>148.3421391932279</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>148.3421391932274</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>148.3421391932279</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>148.3421391932274</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>32.60525894184509</v>
       </c>
       <c r="K42" t="n">
-        <v>148.3421391932283</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053382</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>9.967937521057607</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>116.5915113372851</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053383</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H11" t="n">
-        <v>126.2581410929044</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>71.00919246368238</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>71.44310047544911</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>71.44310047544909</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>66.76788893244525</v>
       </c>
       <c r="I13" t="n">
-        <v>42.26675230583522</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>47.24019771780007</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>125.9998662526632</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>71.44310047544869</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>71.44310047544862</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>131.4000187856893</v>
       </c>
       <c r="C16" t="n">
-        <v>87.74237066443845</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.3328844140846</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.739413241946</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T16" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>59.69806346688205</v>
       </c>
       <c r="I17" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>287.6179741017173</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,10 +23861,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>71.44310047544909</v>
       </c>
       <c r="T18" t="n">
-        <v>50.14070125298434</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>67.8022946232354</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>97.47624745830886</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>147.485201092913</v>
       </c>
       <c r="I19" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>301.5689983504876</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>115.2091516674817</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H20" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24062,7 +24062,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>71.44310047544872</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>71.44310047544818</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>96.69638055280055</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S22" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>210.1796164476973</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>131.4001005657818</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,13 +24262,13 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0499378478622</v>
+        <v>84.59860222604098</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>147.485201092913</v>
@@ -24417,7 +24417,7 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>73.81623751476931</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>126.0680064527791</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>159.5056607774302</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>180.5136275957641</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H26" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3328844140846</v>
+        <v>5.877892530273243</v>
       </c>
       <c r="H28" t="n">
         <v>147.485201092913</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>102.739413241946</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T28" t="n">
-        <v>174.6379262354094</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>255.3841119462626</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>356.4530652333035</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.3328844140846</v>
@@ -24858,7 +24858,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I31" t="n">
-        <v>105.5870378728063</v>
+        <v>55.65839535140011</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>34.95994387236053</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>411.6062992654567</v>
@@ -24937,7 +24937,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>54.11127495777074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>148.2044150749905</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>80.98026294091545</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>55.29753545468458</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H34" t="n">
         <v>147.485201092913</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S34" t="n">
         <v>195.1205252336517</v>
@@ -25131,13 +25131,13 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>365.7315295099793</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I35" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>124.7874829717001</v>
+        <v>47.2401977178009</v>
       </c>
       <c r="T35" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25247,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>71.44310047544913</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>50.14070125298476</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.9970053295571</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I37" t="n">
         <v>105.5870378728063</v>
@@ -25365,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>141.3565515044937</v>
       </c>
     </row>
     <row r="38">
@@ -25396,13 +25396,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>29.7792478253277</v>
       </c>
       <c r="T38" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>254.6262932935088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25481,7 +25481,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>71.44310047544913</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>50.1407012529848</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>126.0680064527793</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I40" t="n">
         <v>105.5870378728063</v>
@@ -25602,22 +25602,22 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T40" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>8.867896058094914</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,22 +25633,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H41" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I41" t="n">
-        <v>8.820850573247334</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,13 +25684,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>39.75474687264216</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>50.14070125298476</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>71.44310047544816</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>64.64844634456627</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>96.32494178059662</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I43" t="n">
         <v>105.5870378728063</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>191.2635233758913</v>
       </c>
       <c r="E44" t="n">
-        <v>245.6801233976657</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>50.14070125298481</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>71.44310047544998</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>19.41154537330266</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>105.5870378728063</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>102.739413241946</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S46" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T46" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>249.1421552064191</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>633970.8194788513</v>
+        <v>633970.8194788512</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>633970.8194788513</v>
+        <v>633970.8194788514</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>646017.3395343954</v>
+        <v>646017.3395343953</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>646017.3395343953</v>
+        <v>646017.3395343954</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>633970.8194788513</v>
+        <v>633970.8194788512</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>633970.8194788513</v>
+        <v>633970.819478851</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>633970.8194788513</v>
+        <v>633970.819478851</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>593975.3455698526</v>
+        <v>593975.3455698527</v>
       </c>
       <c r="C2" t="n">
         <v>593975.3455698527</v>
@@ -26322,22 +26322,22 @@
         <v>593975.3455698526</v>
       </c>
       <c r="E2" t="n">
+        <v>436708.638297232</v>
+      </c>
+      <c r="F2" t="n">
         <v>436708.6382972319</v>
       </c>
-      <c r="F2" t="n">
-        <v>436708.6382972322</v>
-      </c>
       <c r="G2" t="n">
-        <v>436708.6382972321</v>
+        <v>436708.638297232</v>
       </c>
       <c r="H2" t="n">
-        <v>436708.6382972322</v>
+        <v>436708.638297232</v>
       </c>
       <c r="I2" t="n">
-        <v>443027.7805342857</v>
+        <v>443027.7805342855</v>
       </c>
       <c r="J2" t="n">
-        <v>443027.7805342853</v>
+        <v>443027.7805342856</v>
       </c>
       <c r="K2" t="n">
         <v>443027.7805342856</v>
@@ -26346,16 +26346,16 @@
         <v>443027.7805342855</v>
       </c>
       <c r="M2" t="n">
+        <v>436708.6382972321</v>
+      </c>
+      <c r="N2" t="n">
         <v>436708.6382972322</v>
-      </c>
-      <c r="N2" t="n">
-        <v>436708.638297232</v>
       </c>
       <c r="O2" t="n">
         <v>436708.6382972321</v>
       </c>
       <c r="P2" t="n">
-        <v>436708.6382972321</v>
+        <v>436708.6382972319</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>924651.579376124</v>
+        <v>924651.5793761238</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4895.439270648263</v>
+        <v>4895.439270648227</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>150597.3382468589</v>
+        <v>150597.3382468588</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>420147.7688895313</v>
       </c>
       <c r="E4" t="n">
+        <v>17063.09274441892</v>
+      </c>
+      <c r="F4" t="n">
+        <v>17063.09274441893</v>
+      </c>
+      <c r="G4" t="n">
+        <v>17063.09274441892</v>
+      </c>
+      <c r="H4" t="n">
+        <v>17063.09274441897</v>
+      </c>
+      <c r="I4" t="n">
+        <v>20188.99262982722</v>
+      </c>
+      <c r="J4" t="n">
+        <v>20188.99262982725</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20188.99262982724</v>
+      </c>
+      <c r="L4" t="n">
+        <v>20188.99262982723</v>
+      </c>
+      <c r="M4" t="n">
+        <v>17063.09274441892</v>
+      </c>
+      <c r="N4" t="n">
+        <v>17063.09274441892</v>
+      </c>
+      <c r="O4" t="n">
         <v>17063.09274441891</v>
-      </c>
-      <c r="F4" t="n">
-        <v>17063.09274441892</v>
-      </c>
-      <c r="G4" t="n">
-        <v>17063.09274441891</v>
-      </c>
-      <c r="H4" t="n">
-        <v>17063.09274441891</v>
-      </c>
-      <c r="I4" t="n">
-        <v>20188.9926298272</v>
-      </c>
-      <c r="J4" t="n">
-        <v>20188.99262982721</v>
-      </c>
-      <c r="K4" t="n">
-        <v>20188.99262982721</v>
-      </c>
-      <c r="L4" t="n">
-        <v>20188.9926298272</v>
-      </c>
-      <c r="M4" t="n">
-        <v>17063.09274441891</v>
-      </c>
-      <c r="N4" t="n">
-        <v>17063.09274441891</v>
-      </c>
-      <c r="O4" t="n">
-        <v>17063.09274441892</v>
       </c>
       <c r="P4" t="n">
         <v>17063.09274441891</v>
@@ -26481,13 +26481,13 @@
         <v>57906.41050425672</v>
       </c>
       <c r="F5" t="n">
-        <v>57906.41050425673</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="G5" t="n">
-        <v>57906.41050425673</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="H5" t="n">
-        <v>57906.41050425673</v>
+        <v>57906.41050425674</v>
       </c>
       <c r="I5" t="n">
         <v>59025.70047253834</v>
@@ -26508,10 +26508,10 @@
         <v>57906.41050425672</v>
       </c>
       <c r="O5" t="n">
-        <v>57906.41050425674</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="P5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425671</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>140155.8409016402</v>
+        <v>140195.5631024534</v>
       </c>
       <c r="C6" t="n">
-        <v>140155.8409016404</v>
+        <v>140195.5631024534</v>
       </c>
       <c r="D6" t="n">
-        <v>140155.8409016402</v>
+        <v>140195.5631024532</v>
       </c>
       <c r="E6" t="n">
-        <v>-568379.5700122013</v>
+        <v>-563459.1568960309</v>
       </c>
       <c r="F6" t="n">
-        <v>356272.0093639229</v>
+        <v>361192.4224800929</v>
       </c>
       <c r="G6" t="n">
-        <v>356272.0093639229</v>
+        <v>361192.422480093</v>
       </c>
       <c r="H6" t="n">
-        <v>356272.0093639229</v>
+        <v>361192.4224800929</v>
       </c>
       <c r="I6" t="n">
-        <v>353668.4239330884</v>
+        <v>358392.7257384533</v>
       </c>
       <c r="J6" t="n">
-        <v>358563.8632037363</v>
+        <v>363288.1650091017</v>
       </c>
       <c r="K6" t="n">
-        <v>358563.8632037366</v>
+        <v>363288.1650091017</v>
       </c>
       <c r="L6" t="n">
-        <v>358563.8632037365</v>
+        <v>363288.1650091016</v>
       </c>
       <c r="M6" t="n">
-        <v>205674.6711170641</v>
+        <v>210595.0842332343</v>
       </c>
       <c r="N6" t="n">
-        <v>356272.0093639228</v>
+        <v>361192.4224800931</v>
       </c>
       <c r="O6" t="n">
-        <v>356272.0093639229</v>
+        <v>361192.4224800931</v>
       </c>
       <c r="P6" t="n">
-        <v>356272.0093639229</v>
+        <v>361192.4224800929</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074872</v>
       </c>
       <c r="F3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074871</v>
       </c>
       <c r="G3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074872</v>
       </c>
       <c r="H3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074872</v>
       </c>
       <c r="I3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074872</v>
       </c>
       <c r="J3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074872</v>
       </c>
       <c r="K3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074872</v>
       </c>
       <c r="L3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074872</v>
       </c>
       <c r="M3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074872</v>
       </c>
       <c r="N3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074872</v>
       </c>
       <c r="O3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074872</v>
       </c>
       <c r="P3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074871</v>
       </c>
     </row>
     <row r="4">
@@ -26804,19 +26804,19 @@
         <v>622.7228616087748</v>
       </c>
       <c r="G4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="H4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="I4" t="n">
         <v>641.1322360870907</v>
       </c>
       <c r="J4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="K4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="L4" t="n">
         <v>641.1322360870907</v>
@@ -26828,10 +26828,10 @@
         <v>622.7228616087747</v>
       </c>
       <c r="O4" t="n">
-        <v>622.7228616087749</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="P4" t="n">
-        <v>622.7228616087747</v>
+        <v>622.7228616087745</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074872</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.40937447831598</v>
+        <v>18.40937447831584</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.3134871304587</v>
+        <v>604.3134871304585</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I11" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J11" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K11" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L11" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M11" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N11" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O11" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P11" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q11" t="n">
         <v>399.1737460349519</v>
@@ -31794,7 +31794,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U11" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H12" t="n">
         <v>19.10108311477063</v>
@@ -31840,19 +31840,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J12" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K12" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L12" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M12" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N12" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O12" t="n">
         <v>470.5615148623808</v>
@@ -31861,16 +31861,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q12" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R12" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S12" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T12" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U12" t="n">
         <v>0.1301163699916256</v>
@@ -31931,7 +31931,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N13" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O13" t="n">
         <v>234.3641835920855</v>
@@ -31943,16 +31943,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R13" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S13" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T13" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678337</v>
       </c>
       <c r="H14" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451828</v>
       </c>
       <c r="I14" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J14" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K14" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L14" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M14" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088318</v>
       </c>
       <c r="N14" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857305</v>
       </c>
       <c r="O14" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P14" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q14" t="n">
-        <v>399.1737460349519</v>
+        <v>399.1737460349518</v>
       </c>
       <c r="R14" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S14" t="n">
-        <v>84.23258661454521</v>
+        <v>84.2325866145452</v>
       </c>
       <c r="T14" t="n">
         <v>16.18115843796693</v>
       </c>
       <c r="U14" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H15" t="n">
         <v>19.10108311477063</v>
       </c>
       <c r="I15" t="n">
-        <v>68.09423362895072</v>
+        <v>68.0942336289507</v>
       </c>
       <c r="J15" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K15" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321118</v>
       </c>
       <c r="L15" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M15" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N15" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O15" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623807</v>
       </c>
       <c r="P15" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130262</v>
       </c>
       <c r="Q15" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R15" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S15" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096892</v>
       </c>
       <c r="T15" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U15" t="n">
         <v>0.1301163699916256</v>
@@ -32168,7 +32168,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N16" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O16" t="n">
         <v>234.3641835920855</v>
@@ -32177,19 +32177,19 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.8428412057306</v>
+        <v>138.8428412057305</v>
       </c>
       <c r="R16" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522343</v>
       </c>
       <c r="S16" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332052</v>
       </c>
       <c r="T16" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598668</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,28 +32232,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I17" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J17" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K17" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L17" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M17" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N17" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O17" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P17" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q17" t="n">
         <v>399.1737460349519</v>
@@ -32268,7 +32268,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U17" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H18" t="n">
         <v>19.10108311477063</v>
@@ -32314,19 +32314,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J18" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K18" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L18" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M18" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N18" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O18" t="n">
         <v>470.5615148623808</v>
@@ -32335,16 +32335,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q18" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R18" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S18" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T18" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U18" t="n">
         <v>0.1301163699916256</v>
@@ -32405,7 +32405,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N19" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O19" t="n">
         <v>234.3641835920855</v>
@@ -32417,16 +32417,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R19" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S19" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T19" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,28 +32469,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I20" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J20" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K20" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L20" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M20" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N20" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O20" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P20" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q20" t="n">
         <v>399.1737460349519</v>
@@ -32505,7 +32505,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U20" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H21" t="n">
         <v>19.10108311477063</v>
@@ -32551,19 +32551,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J21" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K21" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L21" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M21" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N21" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O21" t="n">
         <v>470.5615148623808</v>
@@ -32572,16 +32572,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q21" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R21" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S21" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T21" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U21" t="n">
         <v>0.1301163699916256</v>
@@ -32642,7 +32642,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N22" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O22" t="n">
         <v>234.3641835920855</v>
@@ -32654,16 +32654,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R22" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S22" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T22" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,28 +32706,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I23" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J23" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K23" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L23" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M23" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N23" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O23" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P23" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q23" t="n">
         <v>399.1737460349519</v>
@@ -32742,7 +32742,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U23" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H24" t="n">
         <v>19.10108311477063</v>
@@ -32788,19 +32788,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J24" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K24" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L24" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M24" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N24" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O24" t="n">
         <v>470.5615148623808</v>
@@ -32809,16 +32809,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q24" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R24" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S24" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T24" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U24" t="n">
         <v>0.1301163699916256</v>
@@ -32879,7 +32879,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N25" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O25" t="n">
         <v>234.3641835920855</v>
@@ -32891,16 +32891,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R25" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S25" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T25" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,28 +32943,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I26" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J26" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K26" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L26" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M26" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N26" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O26" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P26" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q26" t="n">
         <v>399.1737460349519</v>
@@ -32979,7 +32979,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U26" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H27" t="n">
         <v>19.10108311477063</v>
@@ -33025,19 +33025,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J27" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K27" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L27" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M27" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N27" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O27" t="n">
         <v>470.5615148623808</v>
@@ -33046,16 +33046,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q27" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R27" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S27" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T27" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U27" t="n">
         <v>0.1301163699916256</v>
@@ -33116,7 +33116,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N28" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O28" t="n">
         <v>234.3641835920855</v>
@@ -33128,16 +33128,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R28" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S28" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T28" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,28 +33180,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I29" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J29" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K29" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L29" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M29" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N29" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O29" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P29" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q29" t="n">
         <v>399.1737460349519</v>
@@ -33216,7 +33216,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U29" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H30" t="n">
         <v>19.10108311477063</v>
@@ -33262,19 +33262,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J30" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K30" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L30" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M30" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N30" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O30" t="n">
         <v>470.5615148623808</v>
@@ -33283,16 +33283,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q30" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R30" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S30" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T30" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U30" t="n">
         <v>0.1301163699916256</v>
@@ -33353,7 +33353,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N31" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O31" t="n">
         <v>234.3641835920855</v>
@@ -33365,16 +33365,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R31" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S31" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T31" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,28 +33417,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I32" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J32" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K32" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L32" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M32" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N32" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O32" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P32" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q32" t="n">
         <v>399.1737460349519</v>
@@ -33453,7 +33453,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U32" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H33" t="n">
         <v>19.10108311477063</v>
@@ -33499,19 +33499,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J33" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K33" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L33" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M33" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N33" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O33" t="n">
         <v>470.5615148623808</v>
@@ -33520,16 +33520,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q33" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R33" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S33" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T33" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U33" t="n">
         <v>0.1301163699916256</v>
@@ -33590,7 +33590,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N34" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O34" t="n">
         <v>234.3641835920855</v>
@@ -33602,16 +33602,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R34" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S34" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T34" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,28 +33654,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I35" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J35" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K35" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L35" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M35" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N35" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O35" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P35" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q35" t="n">
         <v>399.1737460349519</v>
@@ -33690,7 +33690,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U35" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H36" t="n">
         <v>19.10108311477063</v>
@@ -33736,19 +33736,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J36" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K36" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L36" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M36" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N36" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O36" t="n">
         <v>470.5615148623808</v>
@@ -33757,16 +33757,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q36" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R36" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S36" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T36" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U36" t="n">
         <v>0.1301163699916256</v>
@@ -33827,7 +33827,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N37" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O37" t="n">
         <v>234.3641835920855</v>
@@ -33839,16 +33839,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R37" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S37" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T37" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,28 +33891,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I38" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J38" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K38" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L38" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M38" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N38" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O38" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P38" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q38" t="n">
         <v>399.1737460349519</v>
@@ -33927,7 +33927,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U38" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H39" t="n">
         <v>19.10108311477063</v>
@@ -33973,19 +33973,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J39" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K39" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L39" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M39" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N39" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O39" t="n">
         <v>470.5615148623808</v>
@@ -33994,16 +33994,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q39" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R39" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S39" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T39" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U39" t="n">
         <v>0.1301163699916256</v>
@@ -34064,7 +34064,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N40" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O40" t="n">
         <v>234.3641835920855</v>
@@ -34076,16 +34076,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R40" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S40" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T40" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,28 +34128,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I41" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J41" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K41" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L41" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M41" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N41" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O41" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P41" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q41" t="n">
         <v>399.1737460349519</v>
@@ -34164,7 +34164,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U41" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H42" t="n">
         <v>19.10108311477063</v>
@@ -34210,19 +34210,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J42" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K42" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L42" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M42" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N42" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O42" t="n">
         <v>470.5615148623808</v>
@@ -34231,16 +34231,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q42" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R42" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S42" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T42" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U42" t="n">
         <v>0.1301163699916256</v>
@@ -34301,7 +34301,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N43" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O43" t="n">
         <v>234.3641835920855</v>
@@ -34313,16 +34313,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R43" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S43" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T43" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678337</v>
       </c>
       <c r="H44" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451828</v>
       </c>
       <c r="I44" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J44" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K44" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L44" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M44" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088318</v>
       </c>
       <c r="N44" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857305</v>
       </c>
       <c r="O44" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P44" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q44" t="n">
-        <v>399.1737460349519</v>
+        <v>399.1737460349518</v>
       </c>
       <c r="R44" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S44" t="n">
-        <v>84.23258661454521</v>
+        <v>84.2325866145452</v>
       </c>
       <c r="T44" t="n">
         <v>16.18115843796693</v>
       </c>
       <c r="U44" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H45" t="n">
         <v>19.10108311477063</v>
       </c>
       <c r="I45" t="n">
-        <v>68.09423362895072</v>
+        <v>68.0942336289507</v>
       </c>
       <c r="J45" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K45" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321118</v>
       </c>
       <c r="L45" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M45" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N45" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O45" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623807</v>
       </c>
       <c r="P45" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130262</v>
       </c>
       <c r="Q45" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R45" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S45" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096892</v>
       </c>
       <c r="T45" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U45" t="n">
         <v>0.1301163699916256</v>
@@ -34538,7 +34538,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N46" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O46" t="n">
         <v>234.3641835920855</v>
@@ -34547,19 +34547,19 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.8428412057306</v>
+        <v>138.8428412057305</v>
       </c>
       <c r="R46" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522343</v>
       </c>
       <c r="S46" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332052</v>
       </c>
       <c r="T46" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598668</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K11" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L11" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M11" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N11" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O11" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P11" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q11" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R11" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5043145717674</v>
+        <v>181.5248539577529</v>
       </c>
       <c r="L12" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M12" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N12" t="n">
-        <v>383.0429961922271</v>
+        <v>531.3851353854549</v>
       </c>
       <c r="O12" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P12" t="n">
-        <v>243.6926936986961</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q12" t="n">
-        <v>322.5559691322457</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K13" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L13" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M13" t="n">
         <v>299.4977962876914</v>
@@ -35582,13 +35582,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O13" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P13" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K14" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575406</v>
       </c>
       <c r="L14" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M14" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815591</v>
       </c>
       <c r="N14" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891395</v>
       </c>
       <c r="O14" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P14" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605023</v>
       </c>
       <c r="R14" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722493</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>186.1091904063826</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K15" t="n">
-        <v>329.8669931509808</v>
+        <v>329.8669931509813</v>
       </c>
       <c r="L15" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M15" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N15" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O15" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P15" t="n">
-        <v>243.6926936986961</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q15" t="n">
-        <v>322.5559691322457</v>
+        <v>322.5559691322455</v>
       </c>
       <c r="R15" t="n">
-        <v>22.63732142078702</v>
+        <v>22.63732142078699</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058011</v>
       </c>
       <c r="K16" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295873</v>
       </c>
       <c r="L16" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M16" t="n">
         <v>299.4977962876914</v>
@@ -35819,13 +35819,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O16" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P16" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403615</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K17" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L17" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M17" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N17" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O17" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P17" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R17" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K18" t="n">
-        <v>352.5043145717678</v>
+        <v>445.9900909703315</v>
       </c>
       <c r="L18" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M18" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N18" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O18" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P18" t="n">
-        <v>243.6926936986961</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q18" t="n">
-        <v>322.5559691322457</v>
+        <v>206.4328713128949</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K19" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L19" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M19" t="n">
         <v>299.4977962876914</v>
@@ -36056,13 +36056,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O19" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P19" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K20" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L20" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M20" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N20" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O20" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P20" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q20" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R20" t="n">
-        <v>16.61085138722513</v>
+        <v>16.61085138722651</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>186.1091904063826</v>
+        <v>60.01815506597373</v>
       </c>
       <c r="K21" t="n">
-        <v>181.524853957753</v>
+        <v>370.2098690080894</v>
       </c>
       <c r="L21" t="n">
-        <v>439.2151525090487</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M21" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N21" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O21" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P21" t="n">
-        <v>243.6926936986961</v>
+        <v>562.1554623386332</v>
       </c>
       <c r="Q21" t="n">
-        <v>322.5559691322457</v>
+        <v>112.4786813963965</v>
       </c>
       <c r="R21" t="n">
-        <v>22.63732142078702</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K22" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L22" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M22" t="n">
         <v>299.4977962876914</v>
@@ -36293,13 +36293,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O22" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P22" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K23" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L23" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M23" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N23" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O23" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P23" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q23" t="n">
-        <v>184.0453210905487</v>
+        <v>184.0453210905491</v>
       </c>
       <c r="R23" t="n">
-        <v>82.32727126020743</v>
+        <v>82.3272712602074</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>186.1091904063826</v>
+        <v>60.01815506597373</v>
       </c>
       <c r="K24" t="n">
-        <v>402.7606779540096</v>
+        <v>181.5248539577529</v>
       </c>
       <c r="L24" t="n">
-        <v>290.8730133158208</v>
+        <v>552.4517131691856</v>
       </c>
       <c r="M24" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N24" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O24" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P24" t="n">
-        <v>243.6926936986961</v>
+        <v>562.1554623386332</v>
       </c>
       <c r="Q24" t="n">
-        <v>322.5559691322457</v>
+        <v>112.4786813963965</v>
       </c>
       <c r="R24" t="n">
-        <v>22.63732142078702</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K25" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L25" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M25" t="n">
         <v>299.4977962876914</v>
@@ -36530,13 +36530,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O25" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P25" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q25" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K26" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L26" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M26" t="n">
-        <v>491.6096643845884</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N26" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O26" t="n">
-        <v>392.7100487188048</v>
+        <v>465.6037335218346</v>
       </c>
       <c r="P26" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q26" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R26" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.01815506597376</v>
+        <v>60.01815506597373</v>
       </c>
       <c r="K27" t="n">
-        <v>443.1035538111175</v>
+        <v>445.9900909703315</v>
       </c>
       <c r="L27" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M27" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N27" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O27" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P27" t="n">
-        <v>562.1554623386332</v>
+        <v>559.2689251794201</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.4786813963966</v>
+        <v>112.4786813963965</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K28" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L28" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M28" t="n">
         <v>299.4977962876914</v>
@@ -36767,13 +36767,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O28" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P28" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q28" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>205.5783561699799</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K29" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L29" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M29" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N29" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O29" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P29" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q29" t="n">
-        <v>176.8680561605024</v>
+        <v>184.0453210905496</v>
       </c>
       <c r="R29" t="n">
-        <v>16.61085138722498</v>
+        <v>82.3272712602074</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>186.1091904063826</v>
+        <v>142.8797773900615</v>
       </c>
       <c r="K30" t="n">
-        <v>402.7606779540096</v>
+        <v>445.9900909703315</v>
       </c>
       <c r="L30" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M30" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N30" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O30" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P30" t="n">
-        <v>243.6926936986961</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q30" t="n">
-        <v>322.5559691322457</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R30" t="n">
-        <v>22.63732142078702</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K31" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L31" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M31" t="n">
         <v>299.4977962876914</v>
@@ -37004,13 +37004,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O31" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P31" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q31" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K32" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L32" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M32" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N32" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O32" t="n">
-        <v>392.7100487188048</v>
+        <v>465.6037335218341</v>
       </c>
       <c r="P32" t="n">
-        <v>307.4967100263343</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q32" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R32" t="n">
-        <v>82.32727126020743</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.01815506597376</v>
+        <v>60.01815506597373</v>
       </c>
       <c r="K33" t="n">
-        <v>210.3889446544814</v>
+        <v>181.5248539577529</v>
       </c>
       <c r="L33" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M33" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N33" t="n">
-        <v>383.0429961922271</v>
+        <v>417.2028898597385</v>
       </c>
       <c r="O33" t="n">
-        <v>327.9652704179364</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="P33" t="n">
-        <v>562.1554623386332</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q33" t="n">
-        <v>322.5559691322457</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R33" t="n">
-        <v>22.63732142078702</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K34" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L34" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M34" t="n">
         <v>299.4977962876914</v>
@@ -37241,13 +37241,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O34" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P34" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q34" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K35" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L35" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M35" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N35" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O35" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P35" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q35" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R35" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K36" t="n">
-        <v>181.524853957753</v>
+        <v>329.8669931509808</v>
       </c>
       <c r="L36" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M36" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N36" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O36" t="n">
-        <v>476.3074096111638</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P36" t="n">
-        <v>243.6926936986961</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q36" t="n">
-        <v>322.5559691322457</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R36" t="n">
-        <v>22.63732142078702</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K37" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L37" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M37" t="n">
         <v>299.4977962876914</v>
@@ -37478,13 +37478,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O37" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P37" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q37" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K38" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L38" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M38" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N38" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O38" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P38" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q38" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R38" t="n">
-        <v>16.61085138722467</v>
+        <v>16.61085138722559</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K39" t="n">
-        <v>181.524853957753</v>
+        <v>329.8669931509808</v>
       </c>
       <c r="L39" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M39" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N39" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O39" t="n">
-        <v>476.3074096111638</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P39" t="n">
-        <v>243.6926936986961</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q39" t="n">
-        <v>322.5559691322457</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R39" t="n">
-        <v>22.63732142078702</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K40" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L40" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M40" t="n">
         <v>299.4977962876914</v>
@@ -37715,13 +37715,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O40" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P40" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q40" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K41" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L41" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M41" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N41" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O41" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P41" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q41" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R41" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>186.1091904063826</v>
+        <v>92.62341400781882</v>
       </c>
       <c r="K42" t="n">
-        <v>329.8669931509812</v>
+        <v>445.9900909703315</v>
       </c>
       <c r="L42" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M42" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N42" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O42" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P42" t="n">
-        <v>243.6926936986961</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q42" t="n">
-        <v>322.5559691322457</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R42" t="n">
-        <v>22.63732142078702</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K43" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L43" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M43" t="n">
         <v>299.4977962876914</v>
@@ -37952,13 +37952,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O43" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P43" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K44" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575406</v>
       </c>
       <c r="L44" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M44" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815591</v>
       </c>
       <c r="N44" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891395</v>
       </c>
       <c r="O44" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P44" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605023</v>
       </c>
       <c r="R44" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722493</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>69.98609258703137</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K45" t="n">
-        <v>445.9900909703316</v>
+        <v>445.9900909703314</v>
       </c>
       <c r="L45" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M45" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N45" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O45" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P45" t="n">
-        <v>243.6926936986961</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q45" t="n">
-        <v>322.5559691322457</v>
+        <v>229.0701927336815</v>
       </c>
       <c r="R45" t="n">
-        <v>22.63732142078702</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058011</v>
       </c>
       <c r="K46" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295873</v>
       </c>
       <c r="L46" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M46" t="n">
         <v>299.4977962876914</v>
@@ -38189,13 +38189,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O46" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P46" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q46" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403615</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
